--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.346</v>
+        <v>-0.145</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.518</v>
+        <v>27.394</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.415</v>
+        <v>-0.322</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.514</v>
+        <v>32.339</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.59</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.941</v>
+        <v>26.992</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.128711836636999</v>
+        <v>25.14535666494295</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.43279064272771</v>
+        <v>25.14535669630827</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.14100552344724</v>
+        <v>25.1453567076861</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.760868727978114</v>
+        <v>25.14535666522628</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.49146338616609</v>
+        <v>25.14535670140554</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.54906453828832</v>
+        <v>25.14535671360433</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.768130507508285</v>
+        <v>25.14535667105373</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>24.14641364868832</v>
+        <v>25.14535670997523</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.63417162782356</v>
+        <v>25.14535672066131</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.61560839831112</v>
+        <v>25.1453567191901</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.95127922940125</v>
+        <v>25.14535673307691</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33.13329269551217</v>
+        <v>25.14535673718316</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.625294092483758</v>
+        <v>25.14535668863986</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.50896791487626</v>
+        <v>25.14535672470821</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.68961813526331</v>
+        <v>25.14535673498756</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.55397415309062</v>
+        <v>25.14535671554986</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.28260645061442</v>
+        <v>25.14535675210661</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.29297656996542</v>
+        <v>25.14535676573049</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.114700400603105</v>
+        <v>25.14535671090816</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.03802603147727</v>
+        <v>25.14535675035696</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.02904915683654</v>
+        <v>25.14535676634872</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7.227187442945105</v>
+        <v>25.14535672097271</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.03134096063136</v>
+        <v>25.1453567645658</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>39.13203293572349</v>
+        <v>25.14535677813477</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.49727697522857</v>
+        <v>25.14535677000539</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>40.01721795609252</v>
+        <v>25.14535678866719</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>46.1864952999447</v>
+        <v>25.14535679356501</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>11.77011885179112</v>
+        <v>25.14535673468818</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34.28076728538422</v>
+        <v>25.14535677843111</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>42.61220678867797</v>
+        <v>25.14535678992954</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>15.78375562517837</v>
+        <v>25.1453567488112</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.00281097149958</v>
+        <v>25.14535678642574</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>42.42343515254802</v>
+        <v>25.14535679988848</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>7.575273705780493</v>
+        <v>25.14535674448805</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.83249469244418</v>
+        <v>25.14535678548651</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>39.3457874999034</v>
+        <v>25.14535680089726</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>13.45254189249636</v>
+        <v>25.14535675657648</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.67258036765843</v>
+        <v>25.14535680145635</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>49.12811769190037</v>
+        <v>25.14535681459903</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40.69103445142454</v>
+        <v>25.14535680570042</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>52.07151471982105</v>
+        <v>25.14535682330758</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>58.36750451433842</v>
+        <v>25.14535682733754</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>18.54948536997592</v>
+        <v>25.14535676746429</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>43.25233529879075</v>
+        <v>25.14535681145935</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>52.47492609987616</v>
+        <v>25.1453568233805</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>11.73432484700422</v>
+        <v>25.14535667038998</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.73294209404347</v>
+        <v>25.14535670181707</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.66333870240298</v>
+        <v>25.14535671281463</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.757749299315584</v>
+        <v>25.14535667099776</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.04589755078761</v>
+        <v>25.14535670743965</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.15421813414434</v>
+        <v>25.1453567191531</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>12.55184381717139</v>
+        <v>25.14535667704878</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>33.30555059553116</v>
+        <v>25.14535671587989</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>38.98190496502076</v>
+        <v>25.1453567260216</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>30.91097720257323</v>
+        <v>25.14535672403897</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>37.74688159367199</v>
+        <v>25.14535673736552</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>40.9110960564247</v>
+        <v>25.14535674134557</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>13.82410261040338</v>
+        <v>25.14535669244723</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.18373341772135</v>
+        <v>25.14535672910585</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.45871767531126</v>
+        <v>25.14535673927243</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.87973916258569</v>
+        <v>25.14535671593969</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.63266290937512</v>
+        <v>25.14535675224234</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.46482167008448</v>
+        <v>25.14535676523341</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6.292457803338266</v>
+        <v>25.14535671135187</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.17310680240589</v>
+        <v>25.14535675081708</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.69600653810038</v>
+        <v>25.14535676616562</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>11.68146404821672</v>
+        <v>25.14535672179351</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>37.25572507014691</v>
+        <v>25.1453567650572</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>43.94482490725751</v>
+        <v>25.14535677784567</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>34.9446707901177</v>
+        <v>25.14535676989779</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>45.44312588970885</v>
+        <v>25.14535678759232</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>50.35072969422955</v>
+        <v>25.14535679223666</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>14.94816531230326</v>
+        <v>25.1453567339946</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>38.40160971716645</v>
+        <v>25.14535677783874</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>45.82688884745241</v>
+        <v>25.14535678923203</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.77909487716922</v>
+        <v>25.14535674929735</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>37.67906786951584</v>
+        <v>25.14535678679462</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.15660295853105</v>
+        <v>25.14535679957975</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>10.6612173954728</v>
+        <v>25.14535674495148</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.36037841594526</v>
+        <v>25.14535678607654</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.62229557831384</v>
+        <v>25.14535680075879</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>17.75545393168481</v>
+        <v>25.14535675755885</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>45.2327695646762</v>
+        <v>25.14535680226844</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>53.57217039614074</v>
+        <v>25.14535681458437</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>45.50916476955586</v>
+        <v>25.14535680572995</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>56.97006514359646</v>
+        <v>25.14535682252418</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>61.9996368219328</v>
+        <v>25.14535682635024</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>21.00285440892533</v>
+        <v>25.14535676670842</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>47.16307651575987</v>
+        <v>25.14535681132741</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>55.2704250172404</v>
+        <v>25.14535682285399</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>10.1717882927138</v>
+        <v>25.14535666876363</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.73968390526602</v>
+        <v>25.14535670007515</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.57369008159336</v>
+        <v>25.14535671094019</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5.50782259124562</v>
+        <v>25.14535666901872</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>22.34579674658071</v>
+        <v>25.14535670538397</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.2817699039505</v>
+        <v>25.14535671692178</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.22360375766566</v>
+        <v>25.14535667505398</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>30.62346542249032</v>
+        <v>25.14535671378751</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>36.21371854956114</v>
+        <v>25.14535672385234</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.40188246070309</v>
+        <v>25.14535672220701</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>35.17410014636758</v>
+        <v>25.14535673540692</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.24007281201425</v>
+        <v>25.14535673942921</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>11.8255209770681</v>
+        <v>25.14535669080854</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>27.56692321903763</v>
+        <v>25.14535672729405</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>34.90364403589043</v>
+        <v>25.14535673735209</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>15.35293108363031</v>
+        <v>25.14535671675765</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.7886061847383</v>
+        <v>25.14535675306013</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.43412009315026</v>
+        <v>25.14535676589837</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.219257873580496</v>
+        <v>25.14535671194247</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>27.03336928646884</v>
+        <v>25.14535675153189</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.20895658422386</v>
+        <v>25.14535676664319</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>12.7145167200433</v>
+        <v>25.1453567225307</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>38.13684677651989</v>
+        <v>25.14535676586173</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>44.65032980870357</v>
+        <v>25.14535677854666</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35.8099966340676</v>
+        <v>25.1453567707458</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>46.32480994017753</v>
+        <v>25.14535678833663</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>51.10373896016607</v>
+        <v>25.14535679297971</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>16.3074805899185</v>
+        <v>25.14535673486499</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>39.17377004302654</v>
+        <v>25.14535677859565</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>46.62088724975706</v>
+        <v>25.14535678990543</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.97230829546783</v>
+        <v>25.14535674994731</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.58873845186416</v>
+        <v>25.14535678740723</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>45.93087591190897</v>
+        <v>25.14535680008287</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>11.14139425991706</v>
+        <v>25.14535674534524</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>34.76191624778498</v>
+        <v>25.14535678657701</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.75327886087518</v>
+        <v>25.14535680105316</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>18.35488933724495</v>
+        <v>25.14535675806194</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>45.7126012667345</v>
+        <v>25.14535680280765</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>53.89831438089923</v>
+        <v>25.14535681504145</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>45.9911674850616</v>
+        <v>25.14535680635612</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>57.44039904788038</v>
+        <v>25.14535682304849</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>62.37128020317797</v>
+        <v>25.14535682687757</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>21.73903686961846</v>
+        <v>25.14535676731388</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>47.51213704635278</v>
+        <v>25.14535681185486</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>55.60819175890329</v>
+        <v>25.14535682328913</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>7.621183584247511</v>
+        <v>25.14535666419402</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>18.38008424937783</v>
+        <v>25.14535669481089</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>24.71149281962904</v>
+        <v>25.14535670586023</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.312827008257774</v>
+        <v>25.1453566643823</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>16.33826588269358</v>
+        <v>25.14535669972192</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.00987901761469</v>
+        <v>25.14535671162463</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6.35086432136438</v>
+        <v>25.14535666995482</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.0635228573487</v>
+        <v>25.1453567080285</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>30.15195392016604</v>
+        <v>25.1453567183641</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.45788338374433</v>
+        <v>25.1453567174606</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.59333839158695</v>
+        <v>25.14535673099555</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.72552788478716</v>
+        <v>25.14535673507915</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>9.421730621336138</v>
+        <v>25.14535668817221</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>22.72705593430731</v>
+        <v>25.14535672336147</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.58768538739086</v>
+        <v>25.14535673335671</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>11.45567070565173</v>
+        <v>25.14535671333674</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.52678590203027</v>
+        <v>25.14535674899643</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>34.0976028399206</v>
+        <v>25.14535676225833</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2.984750029300873</v>
+        <v>25.14535670843502</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>20.08229197545323</v>
+        <v>25.14535674693309</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.59542452854572</v>
+        <v>25.14535676254258</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>30.1241940510059</v>
+        <v>25.14535676079905</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>37.75295117517464</v>
+        <v>25.14535677397529</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.59204644310093</v>
+        <v>25.14535676648592</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>38.80822092141366</v>
+        <v>25.14535678464368</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>44.80514165494615</v>
+        <v>25.14535678949912</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>11.76711725343612</v>
+        <v>25.14535673227247</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>33.35115781930804</v>
+        <v>25.14535677495691</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.35024982349724</v>
+        <v>25.14535678612961</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>16.05106118881092</v>
+        <v>25.14535674703383</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.45423122278869</v>
+        <v>25.14535678368557</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>41.40037103969663</v>
+        <v>25.14535679680584</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>7.479815546684186</v>
+        <v>25.14535674239668</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.74016830972515</v>
+        <v>25.14535678240441</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>37.77450869771022</v>
+        <v>25.14535679749523</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>13.43134133976245</v>
+        <v>25.14535675421657</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>38.73509248141691</v>
+        <v>25.14535679809986</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>47.71014988410495</v>
+        <v>25.14535681088676</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>39.75547856724062</v>
+        <v>25.14535680255467</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>50.77041100964109</v>
+        <v>25.14535681969791</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>56.81561522228611</v>
+        <v>25.14535682368571</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>18.64033442189675</v>
+        <v>25.14535676543846</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>42.27748765140087</v>
+        <v>25.14535680839422</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>51.18492042000231</v>
+        <v>25.14535682001653</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>11.20862993394551</v>
+        <v>25.14535667114179</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.35378042673245</v>
+        <v>25.14535670242498</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.76000810683849</v>
+        <v>25.14535671343969</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>6.15298124195467</v>
+        <v>25.14535667161387</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>21.8507217543437</v>
+        <v>25.14535670780558</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.56142276123226</v>
+        <v>25.14535671963488</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>10.6567343320581</v>
+        <v>25.14535667760666</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.92393177708642</v>
+        <v>25.14535671646627</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36.12935325010127</v>
+        <v>25.14535672675009</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>27.56824792559562</v>
+        <v>25.14535672465608</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>34.13829014618073</v>
+        <v>25.14535673826695</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>38.07739952618086</v>
+        <v>25.14535674223342</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>12.99273939678088</v>
+        <v>25.14535669431994</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>27.24441120459054</v>
+        <v>25.14535672994416</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>35.17804001373666</v>
+        <v>25.14535673993079</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>17.35068163192273</v>
+        <v>25.14535672213223</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>34.65560762550915</v>
+        <v>25.14535675845765</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>40.99425495592533</v>
+        <v>25.14535677152983</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>8.883760286614129</v>
+        <v>25.14535671766059</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>27.62618163567216</v>
+        <v>25.14535675703123</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>36.87179612056161</v>
+        <v>25.14535677243098</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>38.18469969465265</v>
+        <v>25.14535677135946</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>45.63224630401447</v>
+        <v>25.1453567843656</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>36.03367272375228</v>
+        <v>25.14535677595616</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>46.63197846250259</v>
+        <v>25.14535679419371</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>52.38701931630565</v>
+        <v>25.14535679892107</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>18.10380410707812</v>
+        <v>25.14535674101135</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>40.53958797647508</v>
+        <v>25.14535678409483</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>48.43657344354255</v>
+        <v>25.14535679515578</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>20.2936720563589</v>
+        <v>25.1453567540744</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>38.84606486196979</v>
+        <v>25.14535679131159</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>46.76355750880424</v>
+        <v>25.14535680435615</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>11.91358360139439</v>
+        <v>25.14535674978266</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.5587528746177</v>
+        <v>25.14535679050273</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>43.56351334144188</v>
+        <v>25.14535680552688</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>18.36697148088188</v>
+        <v>25.14535676202405</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>44.95451527801704</v>
+        <v>25.14535680656208</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>53.99548704088365</v>
+        <v>25.14535681930228</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>45.39971273939379</v>
+        <v>25.14535681009936</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>56.93740502516658</v>
+        <v>25.1453568273647</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>62.85697201842471</v>
+        <v>25.1453568312764</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>23.21976152740732</v>
+        <v>25.14535677235858</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>47.73299021016464</v>
+        <v>25.1453568156451</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>56.72003748028709</v>
+        <v>25.14535682725782</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>11.19172396550811</v>
+        <v>25.14535668034792</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>23.74467361596992</v>
+        <v>25.14535670852075</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.29400576832412</v>
+        <v>25.14535671823605</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8.041932226234312</v>
+        <v>25.14535668113187</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>24.06072340479053</v>
+        <v>25.14535671397514</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.50996536820488</v>
+        <v>25.14535672429133</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>12.1864703458083</v>
+        <v>25.14535668653118</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.12057809100688</v>
+        <v>25.14535672145648</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>36.33364307886434</v>
+        <v>25.14535673040898</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.52119381645986</v>
+        <v>25.14535672801967</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>34.79262671366607</v>
+        <v>25.14535673990561</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>37.72588816709376</v>
+        <v>25.14535674327787</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>13.31793251477195</v>
+        <v>25.14535669961969</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>27.52684661134946</v>
+        <v>25.14535673195492</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>34.20244411149908</v>
+        <v>25.14535674087451</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>19.74495921495981</v>
+        <v>25.14535672607046</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>37.00029857284465</v>
+        <v>25.14535675890587</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>42.16276764494694</v>
+        <v>25.14535677018639</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>12.88657454707771</v>
+        <v>25.1453567222287</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>31.73200290427004</v>
+        <v>25.1453567581167</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>39.07750837557383</v>
+        <v>25.1453567713867</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>18.07517611518751</v>
+        <v>25.14535673184259</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>41.75292002397019</v>
+        <v>25.14535677102705</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>47.69673196890542</v>
+        <v>25.14535678215991</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>38.91014912655854</v>
+        <v>25.14535677452346</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>48.67744028381378</v>
+        <v>25.14535679027023</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>53.05105418505252</v>
+        <v>25.14535679425721</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>20.75624690014899</v>
+        <v>25.14535674193536</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>42.22254396845391</v>
+        <v>25.14535678125325</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>48.83662909154184</v>
+        <v>25.14535679103721</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>21.97508664119173</v>
+        <v>25.14535675449553</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>15.16470361546338</v>
+        <v>25.14535675066517</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>37.22727327664988</v>
+        <v>25.14535678780304</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>44.3004020592949</v>
+        <v>25.14535680065647</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>21.79695146311787</v>
+        <v>25.14535676209957</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>47.10863783884695</v>
+        <v>25.14535680236012</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>54.46270783395588</v>
+        <v>25.14535681318375</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>46.45651246744637</v>
+        <v>25.14535680475289</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>57.09565488050608</v>
+        <v>25.14535681972771</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>61.63151093263109</v>
+        <v>25.14535682302522</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>24.47940997084258</v>
+        <v>25.14535676961218</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>48.0392225784278</v>
+        <v>25.14535680940226</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>55.41633150601187</v>
+        <v>25.14535681945194</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>4.188665844339177</v>
+        <v>25.14535666662651</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>14.3744179057194</v>
+        <v>25.14535669413321</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20.09008731367914</v>
+        <v>25.14535670429056</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.08015389867554745</v>
+        <v>25.14535666653667</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>13.10784972838284</v>
+        <v>25.1453566984147</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>18.94102595033058</v>
+        <v>25.14535670910475</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>3.384656101398647</v>
+        <v>25.14535667144617</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.69436817452464</v>
+        <v>25.14535670550309</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>25.06670332183579</v>
+        <v>25.14535671508334</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>19.50026254968941</v>
+        <v>25.14535671455412</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.14534115044275</v>
+        <v>25.14535672665306</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.40457289643804</v>
+        <v>25.14535673041546</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>5.976280434986574</v>
+        <v>25.14535668695248</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>18.35660365815035</v>
+        <v>25.14535671900861</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.29696827564404</v>
+        <v>25.14535672814709</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>11.11381369619211</v>
+        <v>25.14535671244627</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.28096283705531</v>
+        <v>25.14535674473525</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>32.28973395493037</v>
+        <v>25.14535675678739</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>4.096891656650758</v>
+        <v>25.14535670814853</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>20.3930765272999</v>
+        <v>25.14535674324453</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.73676191063163</v>
+        <v>25.1453567572733</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>8.260899258925264</v>
+        <v>25.14535671714503</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.70813742825386</v>
+        <v>25.14535675563056</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>36.33649943728388</v>
+        <v>25.14535676762533</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.82349814922443</v>
+        <v>25.14535676113378</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>38.07044047502445</v>
+        <v>25.14535677734748</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>43.06418767671343</v>
+        <v>25.14535678168986</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>11.99887702004072</v>
+        <v>25.14535672926829</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.95262154144558</v>
+        <v>25.14535676839936</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>39.19507559100312</v>
+        <v>25.14535677866282</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>14.58358559560692</v>
+        <v>25.14535674272531</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>30.93481562301361</v>
+        <v>25.14535677610545</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>38.38768903375482</v>
+        <v>25.14535678796796</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>7.804359755683711</v>
+        <v>25.14535673872598</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.85282445210674</v>
+        <v>25.14535677539972</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>35.83884200201864</v>
+        <v>25.14535678874157</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>13.43621935270109</v>
+        <v>25.14535674961044</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>36.85517708348175</v>
+        <v>25.14535678943469</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>44.83681760284887</v>
+        <v>25.14535680092805</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>38.26600945776602</v>
+        <v>25.1453567936691</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>48.3488135692569</v>
+        <v>25.1453568090169</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>53.41058251451344</v>
+        <v>25.14535681258238</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>17.29250227238135</v>
+        <v>25.14535675899551</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>39.7130128763133</v>
+        <v>25.14535679874057</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>47.51759368940716</v>
+        <v>25.14535680912463</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>2.74736034705769</v>
+        <v>25.14535666148402</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>13.97707881106173</v>
+        <v>25.14535669218906</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>20.44994132903171</v>
+        <v>25.14535670325088</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-1.907347775449441</v>
+        <v>25.14535666162481</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>12.50453367191689</v>
+        <v>25.14535669713302</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>19.26962001476234</v>
+        <v>25.14535670906168</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>1.62169606504116</v>
+        <v>25.14535666693153</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>19.72645765504662</v>
+        <v>25.14535670507223</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>26.030555945548</v>
+        <v>25.14535671542058</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>18.28256793499352</v>
+        <v>25.14535671414207</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>24.72824182093176</v>
+        <v>25.14535672770961</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.67314242227541</v>
+        <v>25.1453567317442</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>4.493871420335157</v>
+        <v>25.1453566843754</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>18.03533311191126</v>
+        <v>25.14535671968982</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>25.9820147613368</v>
+        <v>25.14535672971098</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>6.554259038968802</v>
+        <v>25.14535671034981</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>22.97143242870824</v>
+        <v>25.14535674599488</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.47605948513131</v>
+        <v>25.14535675923149</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-1.088019761001075</v>
+        <v>25.14535670561922</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>16.32720308300455</v>
+        <v>25.14535674422361</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>25.67801963927841</v>
+        <v>25.14535675981479</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>2.639351857619282</v>
+        <v>25.14535671515819</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>25.92058670258035</v>
+        <v>25.14535675775118</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>33.56535718816281</v>
+        <v>25.14535677096439</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>24.58100975430929</v>
+        <v>25.14535676333703</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>35.07555286341093</v>
+        <v>25.14535678153599</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>40.88859639892777</v>
+        <v>25.14535678641281</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>7.269589644318881</v>
+        <v>25.14535672890833</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.93348496158782</v>
+        <v>25.14535677151089</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>36.94746202819697</v>
+        <v>25.14535678276631</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>10.44930234900475</v>
+        <v>25.14535674352877</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.20686286435648</v>
+        <v>25.14535678015882</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>36.34370365696901</v>
+        <v>25.14535679339547</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>2.925473865072025</v>
+        <v>25.14535673911692</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>24.37609570290654</v>
+        <v>25.14535677916975</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.57760998793029</v>
+        <v>25.14535679441252</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>8.319033189016576</v>
+        <v>25.14535675069692</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>33.82570088040343</v>
+        <v>25.14535679451164</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>43.09027686984634</v>
+        <v>25.14535680746412</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.06615048334235</v>
+        <v>25.14535679894297</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>46.4940065477836</v>
+        <v>25.14535681628212</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>52.5047367257789</v>
+        <v>25.14535682029663</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>13.4161036270596</v>
+        <v>25.14535676158729</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>37.2933837670721</v>
+        <v>25.14535680451517</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>46.38070502190563</v>
+        <v>25.14535681633743</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>13.36783618542582</v>
+        <v>25.14535668281216</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>26.77457703436932</v>
+        <v>25.1453567125663</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>32.86211166918059</v>
+        <v>25.14535672311375</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>10.63205190701758</v>
+        <v>25.14535668438858</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>27.98514318828774</v>
+        <v>25.14535671919522</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>33.89606358961319</v>
+        <v>25.14535673024633</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>15.17899989711248</v>
+        <v>25.14535669051183</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>35.47655279861135</v>
+        <v>25.14535672743643</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>41.13290404302122</v>
+        <v>25.14535673713497</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>33.09516529388073</v>
+        <v>25.14535673444669</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>39.7372967033814</v>
+        <v>25.14535674706126</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>42.88866438309319</v>
+        <v>25.14535675073055</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>16.86574286423464</v>
+        <v>25.14535670443369</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>32.59843366145792</v>
+        <v>25.14535673893882</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>39.95643489150594</v>
+        <v>25.14535674865843</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>15.84224482877571</v>
+        <v>25.14535672641157</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>33.93513585552568</v>
+        <v>25.14535676086095</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>39.5315678014464</v>
+        <v>25.14535677312704</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>9.684352180444048</v>
+        <v>25.1453567230885</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.70814059948454</v>
+        <v>25.14535676080227</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>37.52519194138422</v>
+        <v>25.14535677514029</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>14.80591993640545</v>
+        <v>25.14535673337457</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>39.78897387908705</v>
+        <v>25.14535677455216</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>46.09891316683627</v>
+        <v>25.14535678660809</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>37.43849813190577</v>
+        <v>25.1453567784249</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>47.66782526804129</v>
+        <v>25.14535679521382</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>52.34618529248065</v>
+        <v>25.14535679949741</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>18.49316254673331</v>
+        <v>25.14535674428435</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>41.28790139444295</v>
+        <v>25.14535678575854</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>48.39954835130659</v>
+        <v>25.14535679646469</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>18.97080507864161</v>
+        <v>25.14535675593857</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>38.06133717587554</v>
+        <v>25.14535679141708</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>45.43286157156888</v>
+        <v>25.14535680357239</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>13.23622288277843</v>
+        <v>25.14535675282831</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.71359630328313</v>
+        <v>25.14535679200096</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>44.47600598224005</v>
+        <v>25.14535680575393</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>19.83132514260269</v>
+        <v>25.14535676498002</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>46.52100694077286</v>
+        <v>25.14535680740532</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>54.56983081795506</v>
+        <v>25.14535681905767</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>46.65460204352793</v>
+        <v>25.14535681009917</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>57.77619432935637</v>
+        <v>25.14535682599591</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>62.68535221675984</v>
+        <v>25.14535682954441</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>23.38522099289878</v>
+        <v>25.14535677315955</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>48.62214937642033</v>
+        <v>25.14535681521213</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>56.51246455208194</v>
+        <v>25.14535682610884</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>2.466387056770909</v>
+        <v>25.14535665992484</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>11.97707768027448</v>
+        <v>25.14535668730786</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>17.72014529950656</v>
+        <v>25.14535669730081</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-2.053969931656319</v>
+        <v>25.14535665922977</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>9.640973913249946</v>
+        <v>25.14535669074178</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.84551565144198</v>
+        <v>25.14535670147897</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>1.03411649017665</v>
+        <v>25.14535666371576</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>16.2243942476069</v>
+        <v>25.14535669749774</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>21.87314495344634</v>
+        <v>25.14535670694935</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15.78349428136464</v>
+        <v>25.14535670685262</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.18004784513999</v>
+        <v>25.14535671880288</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>24.42548847084826</v>
+        <v>25.14535672266817</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>3.114634480988705</v>
+        <v>25.14535667965857</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>14.91012190990443</v>
+        <v>25.14535671166766</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>21.76949480055813</v>
+        <v>25.14535672077925</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>5.940741906460811</v>
+        <v>25.14535670293455</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>20.12644877302266</v>
+        <v>25.14535673481176</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.42413172467437</v>
+        <v>25.14535674693656</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-1.085820496815902</v>
+        <v>25.14535669793166</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>13.43235411021729</v>
+        <v>25.14535673239284</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>22.45083800335935</v>
+        <v>25.1453567466904</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>2.442464770582916</v>
+        <v>25.14535670631901</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>22.34253129053784</v>
+        <v>25.14535674418884</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.57860518345317</v>
+        <v>25.14535675637093</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>21.43707596547889</v>
+        <v>25.14535675023322</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>30.34261297765385</v>
+        <v>25.1453567662818</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>35.53844679769018</v>
+        <v>25.14535677087771</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>5.658289788318889</v>
+        <v>25.14535671908524</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.57366033611253</v>
+        <v>25.14535675769652</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>32.07949285081011</v>
+        <v>25.14535676822478</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>10.2568734904806</v>
+        <v>25.14535673499096</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.6525858120749</v>
+        <v>25.14535676807206</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>33.30913748752275</v>
+        <v>25.14535677995159</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>3.653056677962603</v>
+        <v>25.1453567303251</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>21.88773948083044</v>
+        <v>25.14535676644614</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.57495676233149</v>
+        <v>25.14535678004876</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>8.901668472742209</v>
+        <v>25.14535674074373</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>30.82046530940265</v>
+        <v>25.14535678005644</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>39.28165314039508</v>
+        <v>25.14535679169787</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>32.49909599542406</v>
+        <v>25.14535678484909</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>42.09182275538568</v>
+        <v>25.14535680011433</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>47.33399170319495</v>
+        <v>25.14535680382494</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>12.58454082163782</v>
+        <v>25.14535675076579</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>34.01554622644396</v>
+        <v>25.1453567901888</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>41.95924480466861</v>
+        <v>25.14535680068564</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>5.204775083944007</v>
+        <v>25.14535666474059</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>17.58936158152211</v>
+        <v>25.14535669424373</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>22.97639088308219</v>
+        <v>25.14535670444529</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>0.5830923520114482</v>
+        <v>25.14535666433588</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>15.784132979503</v>
+        <v>25.14535669851132</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.31671820348924</v>
+        <v>25.14535670943793</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>4.598607753326455</v>
+        <v>25.14535666954863</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.27323409580434</v>
+        <v>25.14535670603123</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.50292452483039</v>
+        <v>25.14535671550243</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>21.40146328091105</v>
+        <v>25.14535671451719</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>27.77459063083899</v>
+        <v>25.14535672699507</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.64648818276965</v>
+        <v>25.14535673088735</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>6.319657497294806</v>
+        <v>25.14535668514622</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>20.55115581944384</v>
+        <v>25.1453567194241</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.32766093492575</v>
+        <v>25.14535672889976</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>14.38813459763686</v>
+        <v>25.14535671364944</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>31.60955599889077</v>
+        <v>25.14535674802711</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>36.87220151894809</v>
+        <v>25.14535676017124</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>6.323322221599913</v>
+        <v>25.14535670860461</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>24.64443408030246</v>
+        <v>25.14535674603513</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.34412570032229</v>
+        <v>25.14535676037545</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>11.45488192813088</v>
+        <v>25.1453567183857</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>35.19235071604244</v>
+        <v>25.14535675941762</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>41.37687489156707</v>
+        <v>25.14535677144226</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>32.95716760447328</v>
+        <v>25.14535676441598</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>42.97486104864966</v>
+        <v>25.14535678106861</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>47.44787441346742</v>
+        <v>25.14535678552501</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>14.9210037618301</v>
+        <v>25.14535673050421</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.106749356736</v>
+        <v>25.14535677189103</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>43.09537205830939</v>
+        <v>25.14535678256268</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>17.85516674485001</v>
+        <v>25.1453567461167</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>36.25689025156666</v>
+        <v>25.1453567816033</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>43.0734072691512</v>
+        <v>25.14535679357376</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>9.896950867039651</v>
+        <v>25.14535674115799</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>31.85423448172676</v>
+        <v>25.14535678016235</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>39.35831510828117</v>
+        <v>25.14535679393407</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>16.69184282942625</v>
+        <v>25.14535675301967</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>42.30704963528792</v>
+        <v>25.14535679540377</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>50.03349389421938</v>
+        <v>25.14535680701375</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>42.48564861789185</v>
+        <v>25.14535679902585</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>53.384765952621</v>
+        <v>25.14535681488618</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>58.00411095538092</v>
+        <v>25.14535681856134</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>19.89471710652653</v>
+        <v>25.14535676210658</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>43.86621909414006</v>
+        <v>25.14535680427409</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>51.51843715751362</v>
+        <v>25.14535681508529</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>3.838547553689143</v>
+        <v>25.14535665760724</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>14.46281352567215</v>
+        <v>25.14535668648174</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>19.69003734715402</v>
+        <v>25.1453566967993</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-0.6653048206135068</v>
+        <v>25.14535665708689</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>12.64581337671406</v>
+        <v>25.1453566905482</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>17.9453224866566</v>
+        <v>25.14535670153863</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>3.05999717661506</v>
+        <v>25.14535666191205</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>19.8938776839685</v>
+        <v>25.14535669768957</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>24.95470135628157</v>
+        <v>25.14535670732043</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.42261742150183</v>
+        <v>25.14535670725807</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>24.16038261024013</v>
+        <v>25.14535671973207</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>27.14441528754843</v>
+        <v>25.14535672369312</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>4.799368509850016</v>
+        <v>25.14535667857353</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>17.30513546116524</v>
+        <v>25.14535671224368</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>23.98684036343622</v>
+        <v>25.14535672182152</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>4.731154068298036</v>
+        <v>25.14535670124475</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>20.00169072991798</v>
+        <v>25.14535673475386</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.44813944095091</v>
+        <v>25.14535674713475</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-2.720783394741094</v>
+        <v>25.14535669587814</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>13.2092512636693</v>
+        <v>25.14535673232041</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>21.03570053591148</v>
+        <v>25.14535674686472</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1.253574351928815</v>
+        <v>25.14535670483166</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>22.79305428730332</v>
+        <v>25.14535674484845</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.14641825946666</v>
+        <v>25.14535675715597</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>21.47172521650278</v>
+        <v>25.14535675108787</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>30.7080946789539</v>
+        <v>25.14535676771191</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>35.37468580310229</v>
+        <v>25.14535677229901</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>4.878545682898419</v>
+        <v>25.14535671824337</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>24.44338117201684</v>
+        <v>25.14535675884238</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.45812907993695</v>
+        <v>25.14535676968005</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>11.81268554164047</v>
+        <v>25.14535673649175</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.54904814703078</v>
+        <v>25.14535677131425</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.33830590452574</v>
+        <v>25.14535678340899</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>4.114516432554499</v>
+        <v>25.14535673137093</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>24.20390966980388</v>
+        <v>25.14535676961593</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.53114989531312</v>
+        <v>25.1453567834116</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>10.17923062768187</v>
+        <v>25.14535674269603</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>34.04297168041653</v>
+        <v>25.1453567843416</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>41.64578108708815</v>
+        <v>25.1453567960635</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.98740735293807</v>
+        <v>25.14535678905797</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>45.07097010087197</v>
+        <v>25.14535680482409</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>49.79174557355364</v>
+        <v>25.145356808565</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>13.63703250542298</v>
+        <v>25.14535675292491</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>36.19914276107244</v>
+        <v>25.14535679451186</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>43.73663378533741</v>
+        <v>25.1453568053937</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-0.2162829067210446</v>
+        <v>25.14535665436136</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.077726462066678</v>
+        <v>25.14535668163746</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>13.93532122727251</v>
+        <v>25.14535669130544</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-4.864492042261016</v>
+        <v>25.1453566531524</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>6.636978056824407</v>
+        <v>25.1453566847271</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.69237262257856</v>
+        <v>25.14535669508641</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-1.724592082963902</v>
+        <v>25.1453566572114</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.20968633351777</v>
+        <v>25.14535669099955</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.92639427594064</v>
+        <v>25.14535670001352</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.32481491728084</v>
+        <v>25.14535670056911</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>17.51595814450528</v>
+        <v>25.14535671233429</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.35983948167597</v>
+        <v>25.14535671603887</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>0.1967955384451301</v>
+        <v>25.14535667386519</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.24811945300052</v>
+        <v>25.14535670562607</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>17.55432882491041</v>
+        <v>25.14535671461677</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>2.460640996426029</v>
+        <v>25.14535669662361</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>16.27296307726269</v>
+        <v>25.14535672832971</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.29002408371104</v>
+        <v>25.14535673992838</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-4.976263076378881</v>
+        <v>25.14535669084771</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.16090788299768</v>
+        <v>25.14535672531209</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>16.55160070454876</v>
+        <v>25.14535673899226</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-1.419780796071183</v>
+        <v>25.14535669889009</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>18.11296886623532</v>
+        <v>25.14535673676119</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>23.99250865626259</v>
+        <v>25.14535674827847</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>17.20626725660733</v>
+        <v>25.14535674316634</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.74064968058659</v>
+        <v>25.14535675885353</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>30.17821912488429</v>
+        <v>25.14535676315628</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>2.134501239605484</v>
+        <v>25.14535671236996</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.84746279280814</v>
+        <v>25.14535675067456</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>26.49127223380161</v>
+        <v>25.14535676087471</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>9.555698716335387</v>
+        <v>25.14535673150807</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.68735332590659</v>
+        <v>25.14535676441858</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.86341278348899</v>
+        <v>25.14535677580807</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>1.746147781926965</v>
+        <v>25.1453567259223</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>19.74461517448687</v>
+        <v>25.14535676208118</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.6335566247763</v>
+        <v>25.14535677515705</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>7.393457497163244</v>
+        <v>25.14535673630538</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.03863785969612</v>
+        <v>25.14535677569207</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>36.04026738400611</v>
+        <v>25.14535678674673</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.21642305594583</v>
+        <v>25.14535678059063</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>39.42116264573201</v>
+        <v>25.14535679554678</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>43.87510090584864</v>
+        <v>25.14535679907384</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>10.67318036787955</v>
+        <v>25.14535674669976</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>31.02126874391215</v>
+        <v>25.14535678585841</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>38.19875096634082</v>
+        <v>25.14535679623139</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>10.18616794191062</v>
+        <v>25.14535666597926</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>21.50388736026161</v>
+        <v>25.14535669700852</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.07432571859978</v>
+        <v>25.14535670832499</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.419244122056416</v>
+        <v>25.1453566657771</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.16912063693476</v>
+        <v>25.14535670160068</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.06300564833384</v>
+        <v>25.14535671372107</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>9.04607400790489</v>
+        <v>25.1453566717894</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>27.51001417426027</v>
+        <v>25.14535671036839</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>33.83553472237583</v>
+        <v>25.14535672097458</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.42831587674359</v>
+        <v>25.145356719638</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>31.72058596639106</v>
+        <v>25.14535673324235</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.77675278393153</v>
+        <v>25.14535673737794</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>11.68487957925888</v>
+        <v>25.14535668945049</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>25.52607041864934</v>
+        <v>25.14535672527303</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>33.51749795401853</v>
+        <v>25.14535673545032</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>11.35285997760904</v>
+        <v>25.14535671358648</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.75186935783634</v>
+        <v>25.14535674965824</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>34.39020013196847</v>
+        <v>25.14535676308059</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>2.628234451853938</v>
+        <v>25.14535670839025</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>20.2234452967777</v>
+        <v>25.1453567473582</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.75822037086225</v>
+        <v>25.14535676316291</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>7.130108054763806</v>
+        <v>25.14535671848972</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.67156979097267</v>
+        <v>25.14535676159774</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>38.38534872229751</v>
+        <v>25.14535677497726</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.95911021694584</v>
+        <v>25.14535676721373</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>39.23017868379601</v>
+        <v>25.14535678545922</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>45.06788850197659</v>
+        <v>25.14535679032621</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>11.73845406058714</v>
+        <v>25.14535673241395</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>33.75877528642948</v>
+        <v>25.1453567757009</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>41.82270949502222</v>
+        <v>25.14535678704868</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>16.46368254207078</v>
+        <v>25.1453567477034</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>34.29949031847399</v>
+        <v>25.14535678481969</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>42.50040969892665</v>
+        <v>25.14535679815053</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>7.652564091640595</v>
+        <v>25.14535674276918</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.53827687980579</v>
+        <v>25.14535678330418</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.72932666301494</v>
+        <v>25.14535679858304</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>13.9833243220886</v>
+        <v>25.14535675495891</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>39.89323717179878</v>
+        <v>25.14535679936454</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>49.06565527814126</v>
+        <v>25.14535681237005</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>40.73702534853437</v>
+        <v>25.14535680376655</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>51.89634744459779</v>
+        <v>25.14535682100063</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>57.88449954290546</v>
+        <v>25.14535682501388</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>18.93904733895561</v>
+        <v>25.14535676592287</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>43.29450029532636</v>
+        <v>25.14535680954723</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>52.26750812831804</v>
+        <v>25.14535682129734</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>11.43820124970077</v>
+        <v>25.14535666919425</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>23.98967115047839</v>
+        <v>25.14535669882214</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.55395083832025</v>
+        <v>25.14535670922904</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>7.151628058673232</v>
+        <v>25.14535666921022</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>22.5406150184157</v>
+        <v>25.1453567034409</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.42003718721978</v>
+        <v>25.14535671459522</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>11.60754508695068</v>
+        <v>25.145356674783</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.42777999894113</v>
+        <v>25.14535671137077</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>35.81869389478572</v>
+        <v>25.14535672103357</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.44181189462522</v>
+        <v>25.14535671983311</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>34.77900359678009</v>
+        <v>25.14535673243835</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>37.85522510875499</v>
+        <v>25.14535673629709</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>12.88863780078819</v>
+        <v>25.1453566900972</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>27.76303984594905</v>
+        <v>25.14535672476991</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>34.59712651503666</v>
+        <v>25.14535673436204</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>12.56915638524655</v>
+        <v>25.1453567123373</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.58465620997786</v>
+        <v>25.14535674657093</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.29244552789245</v>
+        <v>25.14535675900084</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>5.176383424885639</v>
+        <v>25.14535670745194</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.04454030715631</v>
+        <v>25.14535674456272</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.39339095697753</v>
+        <v>25.14535675928872</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>9.981783240737176</v>
+        <v>25.14535671713105</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>33.39103692644053</v>
+        <v>25.14535675791324</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>39.93830341503411</v>
+        <v>25.1453567702024</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>31.35736985299575</v>
+        <v>25.14535676310555</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>41.21052858837302</v>
+        <v>25.14535677991102</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>46.10054780835243</v>
+        <v>25.14535678442234</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>13.07787321937847</v>
+        <v>25.1453567292799</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.67145567030521</v>
+        <v>25.14535677073342</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>41.8420901975893</v>
+        <v>25.1453567815805</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>16.13798964542388</v>
+        <v>25.14535674470603</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>34.28190491395351</v>
+        <v>25.14535678010312</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>41.52226095040984</v>
+        <v>25.14535679234685</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>9.234530721365283</v>
+        <v>25.14535674011533</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>30.77050307973034</v>
+        <v>25.1453567788289</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.90433688102567</v>
+        <v>25.14535679294096</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>15.75545086593418</v>
+        <v>25.14535675189984</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>41.03094649265476</v>
+        <v>25.14535679408414</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>49.10416991216955</v>
+        <v>25.14535680593775</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>41.69430118197305</v>
+        <v>25.14535679799618</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>52.40330212184396</v>
+        <v>25.1453568139501</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>57.32173456146668</v>
+        <v>25.14535681765848</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>19.02636532929964</v>
+        <v>25.14535676115395</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>43.24516873548887</v>
+        <v>25.14535680338424</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>51.02622937295912</v>
+        <v>25.14535681436258</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>10.96338991983274</v>
+        <v>25.14535667152594</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>24.02809639745647</v>
+        <v>25.1453567041862</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>30.92745529848665</v>
+        <v>25.14535671580006</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>6.342329487522825</v>
+        <v>25.14535667256423</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>23.33071333805633</v>
+        <v>25.14535671039129</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.43813555238907</v>
+        <v>25.14535672280203</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>10.91274219579032</v>
+        <v>25.14535667897044</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>31.44965284013913</v>
+        <v>25.1453567194962</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>38.06334888719213</v>
+        <v>25.14535673030479</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.07295223869036</v>
+        <v>25.14535672788954</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.95570063812804</v>
+        <v>25.14535674210168</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>40.04669379374606</v>
+        <v>25.145356746211</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>13.34407258999867</v>
+        <v>25.14535669584739</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.0453872765873</v>
+        <v>25.14535673339495</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>37.46583170037816</v>
+        <v>25.14535674398487</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>14.30909349563796</v>
+        <v>25.14535672175332</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.75081757089264</v>
+        <v>25.14535675963816</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.553607507976</v>
+        <v>25.14535677342327</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>6.201231869125291</v>
+        <v>25.14535671754382</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>26.21534964796902</v>
+        <v>25.14535675856568</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>35.95430175256817</v>
+        <v>25.14535677476329</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>10.90859865204065</v>
+        <v>25.14535672830121</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>36.78408068789957</v>
+        <v>25.14535677350935</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>44.6722082835462</v>
+        <v>25.14535678715821</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>34.57358359132455</v>
+        <v>25.145356778251</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>45.5940643200606</v>
+        <v>25.14535679728279</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>51.56989277598296</v>
+        <v>25.14535680217771</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>15.31594750978216</v>
+        <v>25.14535674143291</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>39.47849589479243</v>
+        <v>25.14535678672627</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>47.78745103727101</v>
+        <v>25.14535679845346</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>17.86387982394762</v>
+        <v>25.14535675484769</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>37.64280192934594</v>
+        <v>25.14535679376831</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>46.06914761330825</v>
+        <v>25.14535680742753</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>10.19171113762066</v>
+        <v>25.14535675092559</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>34.36978274577601</v>
+        <v>25.14535679346847</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.79536428248609</v>
+        <v>25.14535680911134</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>16.6205560948991</v>
+        <v>25.14535676370416</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>44.72088354934473</v>
+        <v>25.14535681016802</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>54.20971118264005</v>
+        <v>25.14535682343472</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>45.24283766297619</v>
+        <v>25.14535681373429</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>57.24442479374942</v>
+        <v>25.14535683170518</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>63.40021526188724</v>
+        <v>25.14535683574938</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>21.50264454285329</v>
+        <v>25.14535677397108</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>47.89558638366796</v>
+        <v>25.14535681954366</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>57.18662621332037</v>
+        <v>25.14535683171427</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>11.98438078407177</v>
+        <v>25.14535667315599</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>23.75341071102466</v>
+        <v>25.14535670398413</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>30.51468460186318</v>
+        <v>25.14535671504274</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>7.25155753882558</v>
+        <v>25.14535667416831</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.68954552705505</v>
+        <v>25.14535670986655</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.76332152521938</v>
+        <v>25.14535672165232</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>11.50940844439634</v>
+        <v>25.14535667982923</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>30.5927450606143</v>
+        <v>25.14535671818976</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>37.12217545965619</v>
+        <v>25.14535672850727</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.27436454281725</v>
+        <v>25.14535672645328</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>34.83640613843524</v>
+        <v>25.14535674003713</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>39.03496903335558</v>
+        <v>25.14535674400902</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>13.84198259679176</v>
+        <v>25.14535669654002</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.16283162794411</v>
+        <v>25.14535673188715</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>36.54345792299199</v>
+        <v>25.14535674197791</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>15.24492533378907</v>
+        <v>25.14535672216475</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>32.30204049884203</v>
+        <v>25.14535675790042</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>39.07908637165251</v>
+        <v>25.1453567710731</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>7.385444712470424</v>
+        <v>25.14535671843249</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.81228867189673</v>
+        <v>25.1453567570663</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>35.60478140912372</v>
+        <v>25.14535677244788</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>11.53665094153513</v>
+        <v>25.14535672799768</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>35.92989920585468</v>
+        <v>25.14535677074968</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>43.84149711850948</v>
+        <v>25.1453567838235</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>33.86126967240023</v>
+        <v>25.14535677539544</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>44.54529063516961</v>
+        <v>25.14535679361562</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>50.66382934124772</v>
+        <v>25.14535679836102</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>15.98208712043038</v>
+        <v>25.14535674089462</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>38.64621199633049</v>
+        <v>25.14535678356514</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>46.98164023809997</v>
+        <v>25.14535679469929</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>18.67990707942614</v>
+        <v>25.14535675382626</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>37.07134691604105</v>
+        <v>25.14535679050055</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>45.42778526958928</v>
+        <v>25.14535680359348</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>11.1097249880378</v>
+        <v>25.14535675039654</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>33.67839259710754</v>
+        <v>25.14535679042676</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>43.15361866681363</v>
+        <v>25.14535680534973</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>16.9549181918808</v>
+        <v>25.14535676188477</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>43.58603225880618</v>
+        <v>25.14535680578525</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>53.05427333109084</v>
+        <v>25.14535681853991</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>44.24138304713316</v>
+        <v>25.1453568093868</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>55.84140363587065</v>
+        <v>25.14535682658878</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>62.09278958553572</v>
+        <v>25.14535683050324</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>21.93042972658048</v>
+        <v>25.14535677210668</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>46.71766399290659</v>
+        <v>25.14535681495223</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>56.09757817165406</v>
+        <v>25.14535682659691</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>8.45259890634156</v>
+        <v>25.14535666678737</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>21.74110999316184</v>
+        <v>25.14535669856313</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.05755139134815</v>
+        <v>25.14535670960723</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>3.842510966411872</v>
+        <v>25.14535666710836</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>20.2254122233646</v>
+        <v>25.14535670371071</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.9671370186999</v>
+        <v>25.14535671561497</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>8.351753985732094</v>
+        <v>25.14535667326082</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.56304487622917</v>
+        <v>25.1453567124798</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>34.72054043896811</v>
+        <v>25.14535672282413</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.67568294742872</v>
+        <v>25.14535672125733</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>33.55682338793869</v>
+        <v>25.14535673476093</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>36.85877427479192</v>
+        <v>25.14535673885065</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>10.08643189754707</v>
+        <v>25.14535668953183</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>26.02539441820154</v>
+        <v>25.14535672654882</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>33.80055242232457</v>
+        <v>25.14535673669913</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>10.87058177050326</v>
+        <v>25.14535671412915</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.1013250679566</v>
+        <v>25.14535675092115</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>35.28078293114369</v>
+        <v>25.14535676401362</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>3.080828171954519</v>
+        <v>25.1453567094574</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>22.35859855106037</v>
+        <v>25.14535674930691</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.5411423741027</v>
+        <v>25.14535676479504</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>7.81286986035915</v>
+        <v>25.14535671993157</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.00336346247389</v>
+        <v>25.14535676371994</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>40.28242860227449</v>
+        <v>25.14535677676459</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.8802115528086</v>
+        <v>25.14535676890614</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>41.61659945672379</v>
+        <v>25.14535678694011</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>46.93742817611462</v>
+        <v>25.14535679178095</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>11.43322991762714</v>
+        <v>25.14535673271296</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>34.82763282495631</v>
+        <v>25.14535677697206</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>42.81972551290548</v>
+        <v>25.14535678843135</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>14.10708191334018</v>
+        <v>25.14535674754761</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>33.53628275517595</v>
+        <v>25.14535678544992</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>41.39595009393415</v>
+        <v>25.14535679843556</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>6.911997477357605</v>
+        <v>25.14535674311143</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>30.06359520529166</v>
+        <v>25.14535678454573</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>39.07569981755637</v>
+        <v>25.14535679947043</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>13.39007417212536</v>
+        <v>25.14535675568925</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>40.58681951063343</v>
+        <v>25.1453568008211</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>49.45623679914308</v>
+        <v>25.14535681347817</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>41.49215027596359</v>
+        <v>25.14535680479373</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>53.16783234129882</v>
+        <v>25.14535682192634</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>58.58245369129062</v>
+        <v>25.14535682588661</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>17.46660857881768</v>
+        <v>25.14535676552528</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>43.49923500545359</v>
+        <v>25.14535681047637</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>52.16481628627007</v>
+        <v>25.14535682208967</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>6.690391550109013</v>
+        <v>25.14535666489294</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>16.69020546786776</v>
+        <v>25.14535669318768</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>22.42123296786566</v>
+        <v>25.14535670353919</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1.766924702403735</v>
+        <v>25.14535666470689</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>14.78676807290868</v>
+        <v>25.14535669725059</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>20.78367669673095</v>
+        <v>25.14535670842396</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>5.525273283232615</v>
+        <v>25.1453566697539</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.83359545426192</v>
+        <v>25.14535670479333</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>27.39062220421325</v>
+        <v>25.14535671459747</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>20.67487549070517</v>
+        <v>25.14535671383245</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.22208357082606</v>
+        <v>25.14535672642416</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.77952212508609</v>
+        <v>25.14535673020299</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>7.661503905948589</v>
+        <v>25.14535668609144</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.95527984912005</v>
+        <v>25.14535671898051</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.03507585038708</v>
+        <v>25.14535672835821</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>9.607324307789165</v>
+        <v>25.14535671046304</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>24.59959362729533</v>
+        <v>25.14535674351577</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.88153340130141</v>
+        <v>25.14535675584618</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>1.99960213524513</v>
+        <v>25.14535670576979</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>18.01970919765822</v>
+        <v>25.14535674136221</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.95174845348723</v>
+        <v>25.14535675599319</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>5.730076153606451</v>
+        <v>25.14535671474933</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>27.01117050742396</v>
+        <v>25.14535675407561</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>34.30490982446946</v>
+        <v>25.14535676647935</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>25.81205650770253</v>
+        <v>25.14535675966649</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>35.11761691450656</v>
+        <v>25.14535677652636</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>40.67967070959482</v>
+        <v>25.14535678105207</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>9.449661158237129</v>
+        <v>25.1453567276645</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.73725740544144</v>
+        <v>25.14535676753083</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>37.27348921368613</v>
+        <v>25.14535677807289</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>13.68386058772822</v>
+        <v>25.14535674154929</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>30.16820725844136</v>
+        <v>25.14535677564665</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>37.65836151862812</v>
+        <v>25.1453567878795</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>6.130946762094013</v>
+        <v>25.1453567371202</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>26.23135548565868</v>
+        <v>25.14535677423351</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.63796208655897</v>
+        <v>25.1453567883321</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>11.47490847089627</v>
+        <v>25.14535674799954</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>35.12026536900828</v>
+        <v>25.14535678859314</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.51407051783022</v>
+        <v>25.1453568006287</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.92198245476955</v>
+        <v>25.14535679292889</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>46.04670875551498</v>
+        <v>25.145356808912</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>51.70756254826512</v>
+        <v>25.14535681262461</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>15.44914141465352</v>
+        <v>25.14535675812545</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>37.93201813240792</v>
+        <v>25.14535679837412</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>46.22749011600536</v>
+        <v>25.14535680930045</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>10.6512719998756</v>
+        <v>25.1453566714816</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>22.21262291643591</v>
+        <v>25.14535670210399</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.97892850433546</v>
+        <v>25.14535671313804</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>5.705173248651555</v>
+        <v>25.14535667228344</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>20.89119753630758</v>
+        <v>25.14535670773745</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.00458357432894</v>
+        <v>25.14535671950713</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>9.968894063117466</v>
+        <v>25.14535667791443</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.77444498437803</v>
+        <v>25.14535671601189</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>35.31456188813591</v>
+        <v>25.14535672632529</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.67308233044091</v>
+        <v>25.14535672447595</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>33.1533174647986</v>
+        <v>25.14535673804357</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>37.40664803068537</v>
+        <v>25.14535674202011</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>12.4626556300433</v>
+        <v>25.145356694791</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.63973370752372</v>
+        <v>25.145356729996</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>34.98398527442333</v>
+        <v>25.14535674001061</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>13.00913273391848</v>
+        <v>25.14535671985311</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.86333783308209</v>
+        <v>25.14535675538283</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>36.76677100089557</v>
+        <v>25.14535676858584</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>5.050456342002363</v>
+        <v>25.14535671592607</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>23.22598021547815</v>
+        <v>25.14535675434377</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>33.16261480196518</v>
+        <v>25.14535676975694</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>9.148702346371746</v>
+        <v>25.14535672546103</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>33.27270779728956</v>
+        <v>25.14535676794657</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>41.29274473880794</v>
+        <v>25.14535678105995</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.42381051125647</v>
+        <v>25.14535677281081</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>42.02363651393564</v>
+        <v>25.14535679101477</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>48.25258964471544</v>
+        <v>25.14535679578079</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>13.74187256556241</v>
+        <v>25.14535673854883</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>36.30773362885324</v>
+        <v>25.1453567810586</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>44.69547076360467</v>
+        <v>25.14535679217099</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>16.61849296679974</v>
+        <v>25.1453567514952</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>34.82534080144591</v>
+        <v>25.14535678797312</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>43.26434958669478</v>
+        <v>25.14535680107969</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>8.920706881424971</v>
+        <v>25.14535674787842</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>31.27406991717076</v>
+        <v>25.14535678771232</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>40.854710926322</v>
+        <v>25.14535680263916</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>14.7199596272769</v>
+        <v>25.14535675932549</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>41.10318957858228</v>
+        <v>25.14535680297243</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>50.63286456364429</v>
+        <v>25.14535681574117</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>41.9710866394564</v>
+        <v>25.14535680678814</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>53.45708337022374</v>
+        <v>25.14535682396721</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>59.79963122599119</v>
+        <v>25.14535682789076</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>19.8578922250805</v>
+        <v>25.14535676973518</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>44.52384918866814</v>
+        <v>25.14535681242405</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>53.94515650236449</v>
+        <v>25.14535682402965</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>13.29746731003649</v>
+        <v>25.14535667844599</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>24.94321524625851</v>
+        <v>25.1453567077876</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>30.89511528547103</v>
+        <v>25.14535671817486</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>9.513757135438848</v>
+        <v>25.14535667916966</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>24.96996715942693</v>
+        <v>25.14535671338547</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.09244894631956</v>
+        <v>25.14535672442533</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>13.9700857262942</v>
+        <v>25.14535668496912</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>32.41746512427321</v>
+        <v>25.14535672140396</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>38.1139845440114</v>
+        <v>25.14535673112846</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.23294223138426</v>
+        <v>25.14535672910133</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>36.54360403588643</v>
+        <v>25.14535674171529</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>39.90557474031825</v>
+        <v>25.14535674547034</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>15.51275582484964</v>
+        <v>25.14535669997145</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>29.39260762599184</v>
+        <v>25.14535673374147</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>37.21829838547161</v>
+        <v>25.14535674351897</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>17.33551794029352</v>
+        <v>25.14535672371628</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>33.78688571088983</v>
+        <v>25.1453567576867</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>39.35409836640531</v>
+        <v>25.14535676994597</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>10.10626705020614</v>
+        <v>25.14535671950772</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.37097327458589</v>
+        <v>25.14535675662633</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.59880186740504</v>
+        <v>25.14535677101194</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>14.90933048503679</v>
+        <v>25.14535672937015</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>38.24903231612802</v>
+        <v>25.14535677000424</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>44.76918582526442</v>
+        <v>25.14535678222404</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>36.03508110391348</v>
+        <v>25.14535677440873</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>46.10468749805573</v>
+        <v>25.14535679125613</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>51.0294818327007</v>
+        <v>25.14535679565982</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>18.36460280794604</v>
+        <v>25.14535674106152</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.74203717919271</v>
+        <v>25.14535678180788</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>47.25117999693846</v>
+        <v>25.14535679255187</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>19.90570925120871</v>
+        <v>25.14535675381071</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>37.47381513198356</v>
+        <v>25.14535678876948</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>44.71593336018137</v>
+        <v>25.14535680093965</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>13.09958942925407</v>
+        <v>25.14535674977732</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>35.00434071696346</v>
+        <v>25.14535678832471</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>43.0815923103779</v>
+        <v>25.14535680218689</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>19.36939601329566</v>
+        <v>25.14535676152017</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>44.58491788328666</v>
+        <v>25.1453568033626</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>52.73309194912914</v>
+        <v>25.14535681521504</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>44.92628082645915</v>
+        <v>25.14535680660994</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>55.82146687894559</v>
+        <v>25.14535682258229</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>60.94651839400939</v>
+        <v>25.14535682622008</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>22.95849233970379</v>
+        <v>25.14535677047605</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>46.71139979259731</v>
+        <v>25.14535681172729</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>54.99420378776385</v>
+        <v>25.14535682274024</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>8.821154891524341</v>
+        <v>25.14535666867046</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>22.01650294870151</v>
+        <v>25.14535670022454</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>28.40765467019951</v>
+        <v>25.14535671113369</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>4.417118784270219</v>
+        <v>25.14535666917381</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>20.86517143530425</v>
+        <v>25.14535670554968</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>27.5761011762352</v>
+        <v>25.1453567172862</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>8.824952952722125</v>
+        <v>25.14535667529177</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>28.90019398023819</v>
+        <v>25.14535671423677</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>35.1757795003855</v>
+        <v>25.14535672445283</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>27.04245114534636</v>
+        <v>25.14535672286108</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>34.04178273283214</v>
+        <v>25.14535673630768</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>37.28824856732005</v>
+        <v>25.14535674031399</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>10.6277066576542</v>
+        <v>25.14535669138958</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>26.57905157628461</v>
+        <v>25.14535672811017</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>34.2807001501488</v>
+        <v>25.14535673815469</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>11.62064632512919</v>
+        <v>25.14535671589894</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>29.76598967675609</v>
+        <v>25.14535675243762</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>36.0077359741367</v>
+        <v>25.14535676538902</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>3.986084183944012</v>
+        <v>25.14535671142554</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>23.31805533129863</v>
+        <v>25.14535675101273</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.48015776063136</v>
+        <v>25.14535676628668</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>8.685638662316821</v>
+        <v>25.14535672185719</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>33.74626934839083</v>
+        <v>25.14535676533528</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>41.14138071470882</v>
+        <v>25.14535677824827</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>31.61714835945761</v>
+        <v>25.14535677038769</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>42.52653164596987</v>
+        <v>25.14535678837237</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>47.70468815180217</v>
+        <v>25.14535679310346</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>12.33743622339169</v>
+        <v>25.14535673448314</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>35.80499726674249</v>
+        <v>25.14535677846735</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>43.66313007730191</v>
+        <v>25.1453567897198</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>14.38542630629045</v>
+        <v>25.14535674854888</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>33.67518668315675</v>
+        <v>25.14535678614434</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>41.65282810096719</v>
+        <v>25.14535679902681</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>7.242432224953987</v>
+        <v>25.14535674427248</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>30.35884066715665</v>
+        <v>25.14535678538239</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>39.40329774505375</v>
+        <v>25.14535680014484</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>13.58822509930735</v>
+        <v>25.14535675671632</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>40.5770655444399</v>
+        <v>25.1453568014685</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>49.60016235636245</v>
+        <v>25.145356814023</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>41.48964451642379</v>
+        <v>25.14535680538841</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>53.24543851519302</v>
+        <v>25.14535682244213</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>58.63357830004087</v>
+        <v>25.14535682633147</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>17.75458971361229</v>
+        <v>25.14535676647602</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>43.70268205596592</v>
+        <v>25.14535681105064</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>52.33361821915155</v>
+        <v>25.14535682253012</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.145</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.394</v>
+        <v>16.113</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.322</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.339</v>
+        <v>14.177</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.04</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.992</v>
+        <v>4.772</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>25.14535666494295</v>
+        <v>7.565151286484046</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.14535669630827</v>
+        <v>8.803419657913508</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.1453567076861</v>
+        <v>13.82010351618612</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.14535666522628</v>
+        <v>-1.329318927598379</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.14535670140554</v>
+        <v>13.46643551401468</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.14535671360433</v>
+        <v>14.91735616931861</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.14535667105373</v>
+        <v>2.755092310810063</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.14535670997523</v>
+        <v>22.44099748802818</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.14535672066131</v>
+        <v>25.29764400440335</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.1453567191901</v>
+        <v>21.69987231957235</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.14535673307691</v>
+        <v>25.98428018594122</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25.14535673718316</v>
+        <v>29.67941447975459</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.14535668863986</v>
+        <v>5.764518761164673</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.14535672470821</v>
+        <v>15.00130022869502</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.14535673498756</v>
+        <v>17.65107076123888</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.14535671554986</v>
+        <v>11.00194062380533</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.14535675210661</v>
+        <v>25.76654815460892</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.14535676573049</v>
+        <v>40.03814980924849</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>25.14535671090816</v>
+        <v>0.9069777389764155</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.14535675035696</v>
+        <v>15.61234022795722</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.14535676634872</v>
+        <v>29.15695372360511</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25.14535672097271</v>
+        <v>3.363098047630295</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.1453567645658</v>
+        <v>26.82822779834402</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.14535677813477</v>
+        <v>53.78918516179358</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.14535677000539</v>
+        <v>30.97261652774029</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.14535678866719</v>
+        <v>51.99171519432214</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25.14535679356501</v>
+        <v>69.41580377834408</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.14535673468818</v>
+        <v>6.188426599361353</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.14535677843111</v>
+        <v>41.85548677464429</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>25.14535678992954</v>
+        <v>57.10230981706474</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.1453567488112</v>
+        <v>14.28154651066007</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25.14535678642574</v>
+        <v>33.32287081245526</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>25.14535679988848</v>
+        <v>43.52762319893683</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>25.14535674448805</v>
+        <v>0.1567648767917831</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>25.14535678548651</v>
+        <v>25.50093525037942</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.14535680089726</v>
+        <v>35.37204032301674</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>25.14535675657648</v>
+        <v>2.937152580953892</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>25.14535680145635</v>
+        <v>40.582683554159</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25.14535681459903</v>
+        <v>56.84865894637603</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>25.14535680570042</v>
+        <v>54.58677711119989</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>25.14535682330758</v>
+        <v>73.12805159755744</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>25.14535682733754</v>
+        <v>80.84728779611579</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.14535676746429</v>
+        <v>14.63879875904668</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>25.14535681145935</v>
+        <v>57.91435464797485</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25.1453568233805</v>
+        <v>65.52945956487955</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>25.14535667038998</v>
+        <v>6.405537025343428</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.14535670181707</v>
+        <v>31.6713662966679</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.14535671281463</v>
+        <v>41.32921949131372</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>25.14535667099776</v>
+        <v>1.853621768182187</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.14535670743965</v>
+        <v>40.5840278593506</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.1453567191531</v>
+        <v>42.79622509022766</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.14535667704878</v>
+        <v>6.591877732720128</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.14535671587989</v>
+        <v>62.97429185656937</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>25.1453567260216</v>
+        <v>69.23385779527047</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>25.14535672403897</v>
+        <v>58.6197293435837</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>25.14535673736552</v>
+        <v>67.92739898247495</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>25.14535674134557</v>
+        <v>64.06856745289571</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>25.14535669244723</v>
+        <v>6.198364296800172</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>25.14535672910585</v>
+        <v>46.82448942222937</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25.14535673927243</v>
+        <v>55.0629805767994</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>25.14535671593969</v>
+        <v>8.112291774213404</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>25.14535675224234</v>
+        <v>33.98629874861845</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>25.14535676523341</v>
+        <v>40.06417292543556</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>25.14535671135187</v>
+        <v>-1.708826624125262</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.14535675081708</v>
+        <v>23.30954283887792</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.14535676616562</v>
+        <v>34.15783335086573</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>25.14535672179351</v>
+        <v>0.3977771148803555</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25.1453567650572</v>
+        <v>42.35807733987452</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>25.14535677784567</v>
+        <v>58.13759031785631</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>25.14535676989779</v>
+        <v>48.46180338166584</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.14535678759232</v>
+        <v>63.44837962960027</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.14535679223666</v>
+        <v>71.96452492829685</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.1453567339946</v>
+        <v>5.833742025542595</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.14535677783874</v>
+        <v>54.24976756339133</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>25.14535678923203</v>
+        <v>60.75067327973339</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.14535674929735</v>
+        <v>9.918818658147664</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>25.14535678679462</v>
+        <v>36.68606494864753</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>25.14535679957975</v>
+        <v>48.66588042365093</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>25.14535674495148</v>
+        <v>-1.497593985687637</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>25.14535678607654</v>
+        <v>32.47404343074382</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>25.14535680075879</v>
+        <v>41.9433693342782</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.14535675755885</v>
+        <v>3.645472277583174</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.14535680226844</v>
+        <v>56.96474613483653</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>25.14535681458437</v>
+        <v>78.57969682695455</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.14535680572995</v>
+        <v>66.21052503127936</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.14535682252418</v>
+        <v>85.45042568493258</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>25.14535682635024</v>
+        <v>89.87548518201318</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>25.14535676670842</v>
+        <v>5.794183847652029</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.14535681132741</v>
+        <v>67.30825941855043</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>25.14535682285399</v>
+        <v>73.92343932548948</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>25.14535666876363</v>
+        <v>15.19142907752404</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.14535670007515</v>
+        <v>32.26929265028436</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.14535671094019</v>
+        <v>38.57270540700858</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>25.14535666901872</v>
+        <v>1.57129568430144</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>25.14535670538397</v>
+        <v>33.53359249438476</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25.14535671692178</v>
+        <v>34.88963917057437</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>25.14535667505398</v>
+        <v>5.412014541739669</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.14535671378751</v>
+        <v>58.81195247649744</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>25.14535672385234</v>
+        <v>58.33823239336451</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.14535672220701</v>
+        <v>47.38724870963867</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>25.14535673540692</v>
+        <v>57.86836715404925</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>25.14535673942921</v>
+        <v>54.74678406840096</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>25.14535669080854</v>
+        <v>11.72755097799643</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.14535672729405</v>
+        <v>37.05340636747739</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>25.14535673735209</v>
+        <v>40.72750572701594</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.14535671675765</v>
+        <v>18.24954176455348</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>25.14535675306013</v>
+        <v>43.68447358903734</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>25.14535676589837</v>
+        <v>44.93783380584442</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>25.14535671194247</v>
+        <v>3.33709559651378</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25.14535675153189</v>
+        <v>33.11166204522523</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>25.14535676664319</v>
+        <v>37.56053250478408</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>25.1453567225307</v>
+        <v>4.482013492813152</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.14535676586173</v>
+        <v>56.17097408585386</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>25.14535677854666</v>
+        <v>63.58125582699289</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>25.1453567707458</v>
+        <v>56.30215753433097</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>25.14535678833663</v>
+        <v>68.25717845631618</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>25.14535679297971</v>
+        <v>71.70128525875683</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>25.14535673486499</v>
+        <v>18.75646629276876</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>25.14535677859565</v>
+        <v>56.59961646847282</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>25.14535678990543</v>
+        <v>59.73519817999005</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>25.14535674994731</v>
+        <v>18.13791413901275</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>25.14535678740723</v>
+        <v>43.66816079241011</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>25.14535680008287</v>
+        <v>48.8247554032057</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>25.14535674534524</v>
+        <v>0.9166137801682552</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>25.14535678657701</v>
+        <v>38.71537565914584</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>25.14535680105316</v>
+        <v>40.48459251902142</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>25.14535675806194</v>
+        <v>3.50247504516954</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>25.14535680280765</v>
+        <v>66.41167774060185</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>25.14535681504145</v>
+        <v>75.52523728642933</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>25.14535680635612</v>
+        <v>73.4464035179069</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>25.14535682304849</v>
+        <v>81.87333280515865</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>25.14535682687757</v>
+        <v>88.41938639404486</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>25.14535676731388</v>
+        <v>15.78475568450131</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>25.14535681185486</v>
+        <v>69.48129735301062</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>25.14535682328913</v>
+        <v>71.88872760367883</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>25.14535666419402</v>
+        <v>10.15468755808739</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.14535669481089</v>
+        <v>11.63979562917509</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.14535670586023</v>
+        <v>16.15236954944293</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>25.1453566643823</v>
+        <v>-0.9473290122441966</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.14535669972192</v>
+        <v>11.79722768067074</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.14535671162463</v>
+        <v>12.59025142483025</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>25.14535666995482</v>
+        <v>4.993154079529113</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.1453567080285</v>
+        <v>24.65529854805139</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.1453567183641</v>
+        <v>26.61088420942075</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.1453567174606</v>
+        <v>21.83971552037231</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.14535673099555</v>
+        <v>24.82291313333742</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.14535673507915</v>
+        <v>32.14260416250254</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>25.14535668817221</v>
+        <v>54.19211680392836</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>25.14535672336147</v>
+        <v>65.10949093973298</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.14535673335671</v>
+        <v>60.13858967567465</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>25.14535671333674</v>
+        <v>9.259526702059924</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.14535674899643</v>
+        <v>24.229402843622</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>25.14535676225833</v>
+        <v>39.26687456005226</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>25.14535670843502</v>
+        <v>0.7028044133290052</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.14535674693309</v>
+        <v>10.23482858081855</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.14535676254258</v>
+        <v>27.65898779848797</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>25.14535676079905</v>
+        <v>28.05014833113888</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.14535677397529</v>
+        <v>53.63968860939102</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.14535676648592</v>
+        <v>29.26771071954114</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.14535678464368</v>
+        <v>44.06746549914401</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>25.14535678949912</v>
+        <v>63.07920423956537</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>25.14535673227247</v>
+        <v>10.98369240544589</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>25.14535677495691</v>
+        <v>41.09905927323576</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>25.14535678612961</v>
+        <v>50.33822903788156</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25.14535674703383</v>
+        <v>19.54215206447824</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>25.14535678368557</v>
+        <v>30.8602249633087</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.14535679680584</v>
+        <v>42.66683872356103</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>25.14535674239668</v>
+        <v>2.156154599271996</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>25.14535678240441</v>
+        <v>16.11561045178535</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>25.14535679749523</v>
+        <v>27.79985173229309</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.14535675421657</v>
+        <v>8.316999510678706</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>25.14535679809986</v>
+        <v>39.22117526061177</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>25.14535681088676</v>
+        <v>59.83167822534205</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>25.14535680255467</v>
+        <v>41.12672689898417</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>25.14535681969791</v>
+        <v>57.42572629759392</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>25.14535682368571</v>
+        <v>72.14932999987192</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.14535676543846</v>
+        <v>27.23173427694537</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>25.14535680839422</v>
+        <v>56.80433855661327</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>25.14535682001653</v>
+        <v>66.82615279722563</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>25.14535667114179</v>
+        <v>8.814768111317695</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.14535670242498</v>
+        <v>26.36872064418527</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>25.14535671343969</v>
+        <v>30.65678764257656</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.14535667161387</v>
+        <v>0.6940926763805493</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.14535670780558</v>
+        <v>31.2913733481135</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.14535671963488</v>
+        <v>35.91456729919609</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>25.14535667760666</v>
+        <v>7.606754262324422</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25.14535671646627</v>
+        <v>62.13732732297174</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.14535672675009</v>
+        <v>60.45452930433603</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>25.14535672465608</v>
+        <v>47.31451980639505</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.14535673826695</v>
+        <v>59.72302341420514</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>25.14535674223342</v>
+        <v>59.93662208174401</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.14535669431994</v>
+        <v>11.66346808583989</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.14535672994416</v>
+        <v>22.4025153503442</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.14535673993079</v>
+        <v>21.07727801201985</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>25.14535672213223</v>
+        <v>20.65475234430542</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.14535675845765</v>
+        <v>44.24214932476744</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.14535677152983</v>
+        <v>44.62639706363387</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>25.14535671766059</v>
+        <v>3.557088594380922</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.14535675703123</v>
+        <v>31.82121340699396</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.14535677243098</v>
+        <v>40.5146301992111</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>25.14535677135946</v>
+        <v>57.86583653811823</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>25.1453567843656</v>
+        <v>65.48836865519037</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.14535677595616</v>
+        <v>61.26208868285372</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>25.14535679419371</v>
+        <v>73.00797740440248</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.14535679892107</v>
+        <v>78.8699222930144</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.14535674101135</v>
+        <v>31.37409343290364</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>25.14535678409483</v>
+        <v>63.10274034249811</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.14535679515578</v>
+        <v>66.0410064839312</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.1453567540744</v>
+        <v>21.94570823904588</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>25.14535679131159</v>
+        <v>42.76203799978269</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.14535680435615</v>
+        <v>46.43763247097386</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.14535674978266</v>
+        <v>-0.6015281636826444</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>25.14535679050273</v>
+        <v>30.11783330491448</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>25.14535680552688</v>
+        <v>36.23830426180252</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>25.14535676202405</v>
+        <v>6.844100296203436</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.14535680656208</v>
+        <v>60.40462833733049</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>25.14535681930228</v>
+        <v>70.41694560916297</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>25.14535681009936</v>
+        <v>70.78950197856588</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>25.1453568273647</v>
+        <v>80.04620116994177</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>25.1453568312764</v>
+        <v>82.72919072120801</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>25.14535677235858</v>
+        <v>31.27702639731645</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>25.1453568156451</v>
+        <v>67.76651046318437</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.14535682725782</v>
+        <v>74.63754950289965</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>25.14535668034792</v>
+        <v>0.4212660662504248</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.14535670852075</v>
+        <v>17.5258683579651</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>25.14535671823605</v>
+        <v>28.4667573333583</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>25.14535668113187</v>
+        <v>0.7618742631872237</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>25.14535671397514</v>
+        <v>36.57904771905493</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.14535672429133</v>
+        <v>37.01677910469043</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25.14535668653118</v>
+        <v>5.422605191036027</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.14535672145648</v>
+        <v>67.18512668816916</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>25.14535673040898</v>
+        <v>64.20853759339636</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>25.14535672801967</v>
+        <v>48.3141845368647</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>25.14535673990561</v>
+        <v>67.32893741286378</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>25.14535674327787</v>
+        <v>71.90144468968091</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>25.14535669961969</v>
+        <v>2.999743271556881</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>25.14535673195492</v>
+        <v>3.594842873167945</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>25.14535674087451</v>
+        <v>6.815885453635577</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>25.14535672607046</v>
+        <v>14.47422874004727</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.14535675890587</v>
+        <v>44.47903682404549</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>25.14535677018639</v>
+        <v>46.50874141461737</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>25.1453567222287</v>
+        <v>3.661049080677138</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.1453567581167</v>
+        <v>37.5594193454898</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>25.1453567713867</v>
+        <v>42.99380554294311</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>25.14535673184259</v>
+        <v>4.465410477251702</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.14535677102705</v>
+        <v>65.00404612784628</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>25.14535678215991</v>
+        <v>67.78473580416355</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>25.14535677452346</v>
+        <v>52.07951363404739</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>25.14535679027023</v>
+        <v>68.57883353906344</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>25.14535679425721</v>
+        <v>78.18480946154143</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>25.14535674193536</v>
+        <v>17.86886355993344</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.14535678125325</v>
+        <v>67.1190859409956</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>25.14535679103721</v>
+        <v>69.51614431984331</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.14535675449553</v>
+        <v>17.34314306559304</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>25.14535675066517</v>
+        <v>-0.5497970909456669</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>25.14535678780304</v>
+        <v>36.61858978480402</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>25.14535680065647</v>
+        <v>39.80060188454565</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>25.14535676209957</v>
+        <v>4.633241052020004</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.14535680236012</v>
+        <v>68.63501471215204</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>25.14535681318375</v>
+        <v>75.14630589955291</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>25.14535680475289</v>
+        <v>67.93671141388157</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>25.14535681972771</v>
+        <v>84.50123594453848</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>25.14535682302522</v>
+        <v>88.92333610294112</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>25.14535676961218</v>
+        <v>15.58589777977551</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>25.14535680940226</v>
+        <v>71.56030833905754</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.14535681945194</v>
+        <v>75.08466100680202</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>25.14535666662651</v>
+        <v>7.296285366795615</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.14535669413321</v>
+        <v>4.37687239663828</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.14535670429056</v>
+        <v>10.39836160695833</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.14535666653667</v>
+        <v>-1.217828719660474</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>25.1453566984147</v>
+        <v>9.409912532856733</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.14535670910475</v>
+        <v>8.841802746225484</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.14535667144617</v>
+        <v>1.849416875928156</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>25.14535670550309</v>
+        <v>18.02902033334048</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>25.14535671508334</v>
+        <v>20.52952647640652</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>25.14535671455412</v>
+        <v>22.25359052804291</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.14535672665306</v>
+        <v>27.97594492125316</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.14535673041546</v>
+        <v>28.02401997720208</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.14535668695248</v>
+        <v>3.431276728583967</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.14535671900861</v>
+        <v>8.000542807159089</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.14535672814709</v>
+        <v>10.1827901109008</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.14535671244627</v>
+        <v>9.399688832414576</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.14535674473525</v>
+        <v>24.17778690702217</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.14535675678739</v>
+        <v>33.8307152050102</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>25.14535670814853</v>
+        <v>3.14514462296551</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>25.14535674324453</v>
+        <v>18.84101278711782</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.1453567572733</v>
+        <v>28.63328839039519</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>25.14535671714503</v>
+        <v>5.311510458321912</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.14535675563056</v>
+        <v>32.41438036507146</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.14535676762533</v>
+        <v>49.5553734892105</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.14535676113378</v>
+        <v>34.55791080911896</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.14535677734748</v>
+        <v>50.4549028009307</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.14535678168986</v>
+        <v>58.53256402054327</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>25.14535672926829</v>
+        <v>7.857129440054514</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.14535676839936</v>
+        <v>40.27340844173737</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>25.14535677866282</v>
+        <v>49.17418437258826</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.14535674272531</v>
+        <v>9.12240324194056</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>25.14535677610545</v>
+        <v>27.2890053065343</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>25.14535678796796</v>
+        <v>38.84000236807503</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>25.14535673872598</v>
+        <v>0.2976711728753187</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.14535677539972</v>
+        <v>26.38879468178155</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.14535678874157</v>
+        <v>34.52765080914657</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>25.14535674961044</v>
+        <v>3.442744786837729</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>25.14535678943469</v>
+        <v>46.18168586763784</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>25.14535680092805</v>
+        <v>60.36515806781339</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.1453567936691</v>
+        <v>57.81653000818061</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>25.1453568090169</v>
+        <v>70.29422614977457</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>25.14535681258238</v>
+        <v>74.77127875212994</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.14535675899551</v>
+        <v>9.789713702854101</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>25.14535679874057</v>
+        <v>56.81158520575326</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>25.14535680912463</v>
+        <v>68.01313524644301</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>25.14535666148402</v>
+        <v>3.156330166546372</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>25.14535669218906</v>
+        <v>6.199876250898583</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>25.14535670325088</v>
+        <v>8.367412989251946</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>25.14535666162481</v>
+        <v>-1.219773945692555</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>25.14535669713302</v>
+        <v>9.092935208741267</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>25.14535670906168</v>
+        <v>9.758384325353564</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>25.14535666693153</v>
+        <v>1.296986071405495</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>25.14535670507223</v>
+        <v>16.60397203720234</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>25.14535671542058</v>
+        <v>14.67986726921162</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.14535671414207</v>
+        <v>13.38593834963897</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>25.14535672770961</v>
+        <v>15.76044065739154</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>25.1453567317442</v>
+        <v>16.53011970857153</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.1453566843754</v>
+        <v>6.006120790418976</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>25.14535671968982</v>
+        <v>10.65993999003712</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>25.14535672971098</v>
+        <v>11.82059881307263</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>25.14535671034981</v>
+        <v>1.537295388263036</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>25.14535674599488</v>
+        <v>6.960526569402077</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>25.14535675923149</v>
+        <v>17.37890964966076</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>25.14535670561922</v>
+        <v>-0.7970183768759078</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>25.14535674422361</v>
+        <v>0.7864062170418862</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>25.14535675981479</v>
+        <v>10.79879752555318</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>25.14535671515819</v>
+        <v>1.388951338583098</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>25.14535675775118</v>
+        <v>9.329840084869101</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>25.14535677096439</v>
+        <v>28.22066654191766</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>25.14535676333703</v>
+        <v>13.70265147909673</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>25.14535678153599</v>
+        <v>25.09201884474616</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>25.14535678641281</v>
+        <v>41.33941819555888</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.14535672890833</v>
+        <v>1.40465068358969</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.14535677151089</v>
+        <v>11.81656162356705</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.14535678276631</v>
+        <v>12.60153331102929</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>25.14535674352877</v>
+        <v>3.543891868068624</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25.14535678015882</v>
+        <v>6.604680591778497</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.14535679339547</v>
+        <v>25.14378134960499</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>25.14535673911692</v>
+        <v>-3.371207310530451</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>25.14535677916975</v>
+        <v>3.631914418191243</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.14535679441252</v>
+        <v>21.29098627637744</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>25.14535675069692</v>
+        <v>-0.3609475565347253</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.14535679451164</v>
+        <v>12.90760392207223</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.14535680746412</v>
+        <v>44.93974176947886</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>25.14535679894297</v>
+        <v>18.58186385923896</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>25.14535681628212</v>
+        <v>44.00312135692156</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>25.14535682029663</v>
+        <v>65.40557734899988</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>25.14535676158729</v>
+        <v>-1.861272350134058</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>25.14535680451517</v>
+        <v>12.35582867257979</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>25.14535681633743</v>
+        <v>27.21542979321679</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>25.14535668281216</v>
+        <v>11.38180026420492</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.1453567125663</v>
+        <v>23.26404457420044</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.14535672311375</v>
+        <v>39.03048255725857</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>25.14535668438858</v>
+        <v>4.303865812952747</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>25.14535671919522</v>
+        <v>46.49666256210469</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.14535673024633</v>
+        <v>46.82790071906935</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.14535669051183</v>
+        <v>6.772040108280393</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.14535672743643</v>
+        <v>66.76222853397429</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.14535673713497</v>
+        <v>70.50239861712603</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.14535673444669</v>
+        <v>58.13603468581483</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25.14535674706126</v>
+        <v>64.75098058782362</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.14535675073055</v>
+        <v>64.03483937747025</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.14535670443369</v>
+        <v>17.05859531721972</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>25.14535673893882</v>
+        <v>37.65033991976406</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.14535674865843</v>
+        <v>70.72463003873688</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.14535672641157</v>
+        <v>9.68287527501451</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.14535676086095</v>
+        <v>32.8564530480818</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.14535677312704</v>
+        <v>34.12799351525931</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.1453567230885</v>
+        <v>-0.1944935920328774</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.14535676080227</v>
+        <v>30.38925646364382</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.14535677514029</v>
+        <v>31.67907801829025</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>25.14535673337457</v>
+        <v>2.227661382047494</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.14535677455216</v>
+        <v>51.49002272329658</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.14535678660809</v>
+        <v>55.19372417531197</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>25.1453567784249</v>
+        <v>45.86214798741815</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.14535679521382</v>
+        <v>56.53101789453168</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.14535679949741</v>
+        <v>61.62477668852492</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>25.14535674428435</v>
+        <v>15.93227470408141</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>25.14535678575854</v>
+        <v>53.58999940265961</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.14535679646469</v>
+        <v>57.49128187077415</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.14535675593857</v>
+        <v>12.22381532384863</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.14535679141708</v>
+        <v>34.3551914523185</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.14535680357239</v>
+        <v>42.23882804137182</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>25.14535675282831</v>
+        <v>0.2079558617159591</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.14535679200096</v>
+        <v>37.03174509915942</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>25.14535680575393</v>
+        <v>39.40328289009773</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>25.14535676498002</v>
+        <v>5.660846775119843</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>25.14535680740532</v>
+        <v>63.2664547083352</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>25.14535681905767</v>
+        <v>74.12585009937666</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>25.14535681009917</v>
+        <v>66.9521953811948</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>25.14535682599591</v>
+        <v>77.67826820509279</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>25.14535682954441</v>
+        <v>80.85699599957846</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>25.14535677315955</v>
+        <v>14.54954327580543</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>25.14535681521213</v>
+        <v>67.61486569329104</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>25.14535682610884</v>
+        <v>76.17163861740107</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>25.14535665992484</v>
+        <v>5.833864401697639</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>25.14535668730786</v>
+        <v>6.467613017114552</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>25.14535669730081</v>
+        <v>12.45296700433508</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>25.14535665922977</v>
+        <v>-0.8177934520647732</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>25.14535669074178</v>
+        <v>4.1711875316701</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>25.14535670147897</v>
+        <v>8.388691603157984</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.14535666371576</v>
+        <v>1.995114131404836</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.14535669749774</v>
+        <v>12.30001341975966</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>25.14535670694935</v>
+        <v>17.78141916706895</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.14535670685262</v>
+        <v>15.48381985820405</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.14535671880288</v>
+        <v>18.99196018412316</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.14535672266817</v>
+        <v>21.89039680050012</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.14535667965857</v>
+        <v>4.967233118987426</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>25.14535671166766</v>
+        <v>11.4711141028133</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.14535672077925</v>
+        <v>10.34938400323138</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>25.14535670293455</v>
+        <v>5.987586905349822</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>25.14535673481176</v>
+        <v>13.93693574303913</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>25.14535674693656</v>
+        <v>27.77689507396646</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.14535669793166</v>
+        <v>0.5226750255479082</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.14535673239284</v>
+        <v>5.817525648018563</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.1453567466904</v>
+        <v>22.0330525387335</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.14535670631901</v>
+        <v>1.10444686654656</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.14535674418884</v>
+        <v>10.95405524169119</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.14535675637093</v>
+        <v>38.6525504702937</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.14535675023322</v>
+        <v>16.2529050904571</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>25.1453567662818</v>
+        <v>28.32762225256623</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>25.14535677087771</v>
+        <v>41.21317134493563</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>25.14535671908524</v>
+        <v>3.790197275000295</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.14535675769652</v>
+        <v>21.57749170388322</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>25.14535676822478</v>
+        <v>34.42055336759493</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>25.14535673499096</v>
+        <v>11.01242493272297</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.14535676807206</v>
+        <v>20.10386507818553</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>25.14535677995159</v>
+        <v>35.62775620502423</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.1453567303251</v>
+        <v>1.214659306891747</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>25.14535676644614</v>
+        <v>14.17228899747679</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.14535678004876</v>
+        <v>28.69832575293902</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>25.14535674074373</v>
+        <v>5.171852031846967</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>25.14535678005644</v>
+        <v>26.84904258769853</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.14535679169787</v>
+        <v>52.26006947718777</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>25.14535678484909</v>
+        <v>31.96739367323041</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.14535680011433</v>
+        <v>40.61690760004</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25.14535680382494</v>
+        <v>66.5973998604527</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.14535675076579</v>
+        <v>15.79444998683279</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>25.1453567901888</v>
+        <v>35.16372221920565</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.14535680068564</v>
+        <v>50.38247718926385</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.14535666474059</v>
+        <v>1.411656540126291</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.14535669424373</v>
+        <v>-2.049402079739565</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.14535670444529</v>
+        <v>5.344861210634669</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>25.14535666433588</v>
+        <v>-4.455469157281467</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.14535669851132</v>
+        <v>1.646847673740378</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.14535670943793</v>
+        <v>3.033183871889925</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.14535666954863</v>
+        <v>-1.190197124409707</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.14535670603123</v>
+        <v>11.15479060683382</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.14535671550243</v>
+        <v>12.17263332103449</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>25.14535671451719</v>
+        <v>1.88165439150951</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>25.14535672699507</v>
+        <v>8.547151755403346</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.14535673088735</v>
+        <v>14.04624636848028</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.14535668514622</v>
+        <v>-1.376375977790776</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.1453567194241</v>
+        <v>-1.301295657453011</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.14535672889976</v>
+        <v>1.070862793752024</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.14535671364944</v>
+        <v>16.74622048533852</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>25.14535674802711</v>
+        <v>35.02760043896235</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>25.14535676017124</v>
+        <v>38.66073439345784</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>25.14535670860461</v>
+        <v>4.692856775483474</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.14535674603513</v>
+        <v>26.15489800601863</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.14535676037545</v>
+        <v>31.86819281540272</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>25.1453567183857</v>
+        <v>9.761040243231559</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.14535675941762</v>
+        <v>48.8886498621932</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>25.14535677144226</v>
+        <v>57.12074905118238</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>25.14535676441598</v>
+        <v>46.67424891640721</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>25.14535678106861</v>
+        <v>55.69853352790497</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.14535678552501</v>
+        <v>59.66756722896685</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>25.14535673050421</v>
+        <v>16.72592094204708</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>25.14535677189103</v>
+        <v>49.55307171722264</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>25.14535678256268</v>
+        <v>51.48803026377828</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>25.1453567461167</v>
+        <v>18.23013709780739</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>25.1453567816033</v>
+        <v>37.65871561816225</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>25.14535679357376</v>
+        <v>47.0052640982131</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>25.14535674115799</v>
+        <v>2.117582044343735</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>25.14535678016235</v>
+        <v>32.14973080594208</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>25.14535679393407</v>
+        <v>36.25553778231234</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>25.14535675301967</v>
+        <v>7.812957470481237</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>25.14535679540377</v>
+        <v>59.39291769377555</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>25.14535680701375</v>
+        <v>68.70434921187112</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>25.14535679902585</v>
+        <v>63.62243845457508</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>25.14535681488618</v>
+        <v>76.80257271441275</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>25.14535681856134</v>
+        <v>79.8278610418615</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>25.14535676210658</v>
+        <v>13.5589469746693</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>25.14535680427409</v>
+        <v>62.82990614505587</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>25.14535681508529</v>
+        <v>66.25141867824387</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>25.14535665760724</v>
+        <v>12.53117227407387</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>25.14535668648174</v>
+        <v>13.33664072756538</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>25.1453566967993</v>
+        <v>15.6750836526041</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>25.14535665708689</v>
+        <v>2.235101476113098</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>25.1453566905482</v>
+        <v>12.54484564509003</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>25.14535670153863</v>
+        <v>12.064593779544</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>25.14535666191205</v>
+        <v>9.389367588398281</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>25.14535669768957</v>
+        <v>23.81095189840025</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.14535670732043</v>
+        <v>23.04913143911141</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.14535670725807</v>
+        <v>22.84287991698791</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.14535671973207</v>
+        <v>27.12510490396387</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.14535672369312</v>
+        <v>29.02683315116162</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.14535667857353</v>
+        <v>12.2892287234684</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.14535671224368</v>
+        <v>16.97224326148083</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>25.14535672182152</v>
+        <v>17.02625093690463</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.14535670124475</v>
+        <v>4.884681221325003</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>25.14535673475386</v>
+        <v>9.935273196956526</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.14535674713475</v>
+        <v>17.19283465152524</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>25.14535669587814</v>
+        <v>-3.398841593616474</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>25.14535673232041</v>
+        <v>1.049467480446545</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>25.14535674686472</v>
+        <v>12.61835836798927</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>25.14535670483166</v>
+        <v>-1.811613217063417</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>25.14535674484845</v>
+        <v>8.543233329126465</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>25.14535675715597</v>
+        <v>26.09317895409857</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>25.14535675108787</v>
+        <v>12.70254030123932</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>25.14535676771191</v>
+        <v>20.2732636023893</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>25.14535677229901</v>
+        <v>29.25282258270047</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.14535671824337</v>
+        <v>-0.6923880148856725</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>25.14535675884238</v>
+        <v>10.88642783207808</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>25.14535676968005</v>
+        <v>18.05582494347907</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>25.14535673649175</v>
+        <v>16.08053698876696</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>25.14535677131425</v>
+        <v>26.54720648955348</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>25.14535678340899</v>
+        <v>32.17704947532434</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>25.14535673137093</v>
+        <v>0.0635453683342142</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>25.14535676961593</v>
+        <v>16.93956182997545</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>25.1453567834116</v>
+        <v>22.07645490486584</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>25.14535674269603</v>
+        <v>5.772024037021865</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>25.1453567843416</v>
+        <v>35.55088532515376</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.1453567960635</v>
+        <v>47.17403386070803</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>25.14535678905797</v>
+        <v>42.89773602816427</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.14535680482409</v>
+        <v>46.59411524086969</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>25.145356808565</v>
+        <v>59.3040742437602</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>25.14535675292491</v>
+        <v>11.82201671064911</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>25.14535679451186</v>
+        <v>37.96031676512149</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.1453568053937</v>
+        <v>41.95292688955666</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>25.14535665436136</v>
+        <v>3.761697563743123</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.14535668163746</v>
+        <v>2.189868497267547</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>25.14535669130544</v>
+        <v>1.577592467056583</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>25.1453566531524</v>
+        <v>-1.676962448716608</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.1453566847271</v>
+        <v>1.012218851066692</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.14535669508641</v>
+        <v>-0.7724095177342747</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.1453566572114</v>
+        <v>5.588372597888565</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>25.14535669099955</v>
+        <v>8.032725332601736</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>25.14535670001352</v>
+        <v>3.842985948250323</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>25.14535670056911</v>
+        <v>4.922176838574543</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.14535671233429</v>
+        <v>3.721892788411342</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>25.14535671603887</v>
+        <v>5.694745262607356</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>25.14535667386519</v>
+        <v>3.087192466076104</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.14535670562607</v>
+        <v>5.895129990666273</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.14535671461677</v>
+        <v>2.514792748193557</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.14535669662361</v>
+        <v>0.002496791304928081</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>25.14535672832971</v>
+        <v>0.9474700513189802</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.14535673992838</v>
+        <v>1.777831855834584</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.14535669084771</v>
+        <v>-2.218162799775872</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>25.14535672531209</v>
+        <v>-4.260865683513067</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.14535673899226</v>
+        <v>1.202791757303835</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.14535669889009</v>
+        <v>-1.594605682735335</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>25.14535673676119</v>
+        <v>1.343923547219305</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.14535674827847</v>
+        <v>6.046870988887889</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.14535674316634</v>
+        <v>5.162555263611161</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.14535675885353</v>
+        <v>6.939629025823429</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.14535676315628</v>
+        <v>7.08200429270217</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.14535671236996</v>
+        <v>-2.350916281844363</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.14535675067456</v>
+        <v>2.922423900603178</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.14535676087471</v>
+        <v>2.725510572902468</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.14535673150807</v>
+        <v>17.40789825418912</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.14535676441858</v>
+        <v>21.03261439942295</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.14535677580807</v>
+        <v>23.16715920877434</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.1453567259223</v>
+        <v>3.747657974167307</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.14535676208118</v>
+        <v>11.48767697354471</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.14535677515705</v>
+        <v>14.71803401489127</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>25.14535673630538</v>
+        <v>8.467207104599687</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.14535677569207</v>
+        <v>28.19750727434455</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.14535678674673</v>
+        <v>31.5935412531094</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.14535678059063</v>
+        <v>30.2556746396678</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.14535679554678</v>
+        <v>31.18957671745051</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.14535679907384</v>
+        <v>38.06307591096493</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.14535674669976</v>
+        <v>17.5073285012538</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.14535678585841</v>
+        <v>27.04463812154492</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.14535679623139</v>
+        <v>29.36287645751308</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.14535666597926</v>
+        <v>22.2839839247781</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.14535669700852</v>
+        <v>30.55978369934295</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.14535670832499</v>
+        <v>38.38380654533189</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>25.1453566657771</v>
+        <v>4.973612982036695</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.14535670160068</v>
+        <v>21.9090267994727</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.14535671372107</v>
+        <v>27.57107469301573</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.1453566717894</v>
+        <v>13.5337627448633</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.14535671036839</v>
+        <v>43.02535973801611</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.14535672097458</v>
+        <v>49.17802079887107</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.145356719638</v>
+        <v>41.82432172901995</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.14535673324235</v>
+        <v>47.45374432209337</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>25.14535673737794</v>
+        <v>50.28558559335681</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>25.14535668945049</v>
+        <v>29.05717553779382</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>25.14535672527303</v>
+        <v>51.0367538602917</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>25.14535673545032</v>
+        <v>59.32098928266315</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>25.14535671358648</v>
+        <v>13.0726721647715</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>25.14535674965824</v>
+        <v>24.12596752129633</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.14535676308059</v>
+        <v>29.7900874067982</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.14535670839025</v>
+        <v>-2.024098180433835</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.1453567473582</v>
+        <v>8.171158238135277</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.14535676316291</v>
+        <v>14.18656858825029</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.14535671848972</v>
+        <v>2.918104136383448</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.14535676159774</v>
+        <v>24.27005787208029</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>25.14535677497726</v>
+        <v>35.16736416213657</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.14535676721373</v>
+        <v>28.16672795455965</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>25.14535678545922</v>
+        <v>34.67997591591956</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>25.14535679032621</v>
+        <v>41.45660271843396</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>25.14535673241395</v>
+        <v>14.73021038091877</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.1453567757009</v>
+        <v>37.61514646881767</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.14535678704868</v>
+        <v>43.46675758324522</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.1453567477034</v>
+        <v>23.18127009811077</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>25.14535678481969</v>
+        <v>35.79050651596583</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.14535679815053</v>
+        <v>45.62925417793785</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.14535674276918</v>
+        <v>2.521914369127956</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>25.14535678330418</v>
+        <v>21.50096709000782</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.14535679858304</v>
+        <v>27.00104375425564</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.14535675495891</v>
+        <v>11.53815707999733</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.14535679936454</v>
+        <v>45.66885179414385</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.14535681237005</v>
+        <v>57.78433704554122</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>25.14535680376655</v>
+        <v>57.74832358075343</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>25.14535682100063</v>
+        <v>65.07883071832811</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.14535682501388</v>
+        <v>68.40051329977319</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.14535676592287</v>
+        <v>23.30306475139663</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>25.14535680954723</v>
+        <v>53.03213994342896</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.14535682129734</v>
+        <v>63.8860650652183</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.14535666919425</v>
+        <v>14.10534617138435</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>25.14535669882214</v>
+        <v>33.46345459527275</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.14535670922904</v>
+        <v>41.22613546066843</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.14535666921022</v>
+        <v>5.770261256281586</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.1453567034409</v>
+        <v>34.87883467593843</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.14535671459522</v>
+        <v>38.84641891769542</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.145356674783</v>
+        <v>11.33217876973077</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.14535671137077</v>
+        <v>57.62680850492275</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.14535672103357</v>
+        <v>62.21526539293203</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.14535671983311</v>
+        <v>60.41147487376674</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.14535673243835</v>
+        <v>67.61587762544586</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.14535673629709</v>
+        <v>66.118516137043</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.1453566900972</v>
+        <v>13.74522260143274</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>25.14535672476991</v>
+        <v>40.75465742819487</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.14535673436204</v>
+        <v>49.52418392967618</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.1453567123373</v>
+        <v>9.932874462065572</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.14535674657093</v>
+        <v>31.44691919841047</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.14535675900084</v>
+        <v>36.58493727697594</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>25.14535670745194</v>
+        <v>1.479649006899386</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.14535674456272</v>
+        <v>22.28938568793993</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.14535675928872</v>
+        <v>31.97529654344183</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>25.14535671713105</v>
+        <v>2.825189130058842</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.14535675791324</v>
+        <v>39.58704254941634</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.1453567702024</v>
+        <v>52.57412621932701</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.14535676310555</v>
+        <v>44.32409432153257</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>25.14535677991102</v>
+        <v>53.79908518987221</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>25.14535678442234</v>
+        <v>61.71844729541499</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>25.1453567292799</v>
+        <v>6.808001223340732</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>25.14535677073342</v>
+        <v>44.08514843440308</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>25.1453567815805</v>
+        <v>51.78408424126246</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>25.14535674470603</v>
+        <v>9.774385668510085</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>25.14535678010312</v>
+        <v>30.7455469608694</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>25.14535679234685</v>
+        <v>42.91840824971198</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>25.14535674011533</v>
+        <v>-2.412889458755775</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>25.1453567788289</v>
+        <v>25.24144528873784</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.14535679294096</v>
+        <v>35.76295291721867</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>25.14535675189984</v>
+        <v>0.206139668795867</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>25.14535679408414</v>
+        <v>45.30665387677242</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.14535680593775</v>
+        <v>65.62053408527682</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>25.14535679799618</v>
+        <v>54.75094108950772</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>25.1453568139501</v>
+        <v>69.24391145032135</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>25.14535681765848</v>
+        <v>80.76949160699907</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>25.14535676115395</v>
+        <v>5.025329576416645</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>25.14535680338424</v>
+        <v>52.38819620538227</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>25.14535681436258</v>
+        <v>63.531392271859</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>25.14535667152594</v>
+        <v>9.352439293260426</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.1453567041862</v>
+        <v>25.19102371113453</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>25.14535671580006</v>
+        <v>36.46470639465824</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>25.14535667256423</v>
+        <v>4.613079697310265</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>25.14535671039129</v>
+        <v>43.70446271679883</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.14535672280203</v>
+        <v>49.62611687966061</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>25.14535667897044</v>
+        <v>10.38476391739288</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>25.1453567194962</v>
+        <v>64.82394890711778</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>25.14535673030479</v>
+        <v>68.15072151289708</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>25.14535672788954</v>
+        <v>60.8617095389455</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>25.14535674210168</v>
+        <v>59.27415018177685</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>25.145356746211</v>
+        <v>64.21919633796314</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>25.14535669584739</v>
+        <v>9.36135354883686</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>25.14535673339495</v>
+        <v>34.04480325111354</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>25.14535674398487</v>
+        <v>57.15875138813853</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>25.14535672175332</v>
+        <v>10.11815264462281</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.14535675963816</v>
+        <v>33.01062622469681</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>25.14535677342327</v>
+        <v>37.76638976713586</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>25.14535671754382</v>
+        <v>-2.012337427850618</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.14535675856568</v>
+        <v>24.85627523757499</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>25.14535677476329</v>
+        <v>32.03697643934212</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>25.14535672830121</v>
+        <v>0.0445817547943399</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>25.14535677350935</v>
+        <v>45.03961001632199</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>25.14535678715821</v>
+        <v>54.34482900138558</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>25.145356778251</v>
+        <v>43.25247632978949</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>25.14535679728279</v>
+        <v>53.37554454576877</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>25.14535680217771</v>
+        <v>61.76742372637489</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>25.14535674143291</v>
+        <v>5.48298758219379</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>25.14535678672627</v>
+        <v>45.56229416513654</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>25.14535679845346</v>
+        <v>54.11319565855906</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>25.14535675484769</v>
+        <v>10.31152896434966</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>25.14535679376831</v>
+        <v>34.19412846967823</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>25.14535680742753</v>
+        <v>42.34391896313576</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>25.14535675092559</v>
+        <v>-2.827824928126809</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>25.14535679346847</v>
+        <v>31.71598064055407</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>25.14535680911134</v>
+        <v>39.43548997991061</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>25.14535676370416</v>
+        <v>0.4311025095012297</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>25.14535681016802</v>
+        <v>53.60712024729609</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>25.14535682343472</v>
+        <v>65.34862595458733</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>25.14535681373429</v>
+        <v>64.32068376682653</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>25.14535683170518</v>
+        <v>76.45005886840022</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>25.14535683574938</v>
+        <v>80.63781232407339</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>25.14535677397108</v>
+        <v>7.866652993352297</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>25.14535681954366</v>
+        <v>58.15019192221311</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>25.14535683171427</v>
+        <v>68.91558496776518</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>25.14535667315599</v>
+        <v>19.19618904752183</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.14535670398413</v>
+        <v>28.13772188978846</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>25.14535671504274</v>
+        <v>38.1785347590379</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.14535667416831</v>
+        <v>13.33060193590607</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.14535670986655</v>
+        <v>53.38442730559463</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.14535672165232</v>
+        <v>56.52258867952764</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.14535667982923</v>
+        <v>15.25843002271858</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>25.14535671818976</v>
+        <v>62.81099801686497</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.14535672850727</v>
+        <v>66.76949398230909</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>25.14535672645328</v>
+        <v>55.67205132813086</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>25.14535674003713</v>
+        <v>59.18865291517834</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>25.14535674400902</v>
+        <v>59.74462443260047</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.14535669654002</v>
+        <v>16.41760918941012</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.14535673188715</v>
+        <v>33.48023163273887</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>25.14535674197791</v>
+        <v>52.95275926631867</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.14535672216475</v>
+        <v>23.27819884860302</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.14535675790042</v>
+        <v>35.59335331851035</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.1453567710731</v>
+        <v>40.29185608365417</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.14535671843249</v>
+        <v>34.90537965375694</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.1453567570663</v>
+        <v>50.0760595066787</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.14535677244788</v>
+        <v>57.53698988281687</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>25.14535672799768</v>
+        <v>10.53802098637004</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>25.14535677074968</v>
+        <v>47.51352846458387</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.1453567838235</v>
+        <v>57.35458196281854</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.14535677539544</v>
+        <v>45.96736808791827</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.14535679361562</v>
+        <v>55.39131445703079</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.14535679836102</v>
+        <v>58.36465744174585</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.14535674089462</v>
+        <v>22.43408988663742</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>25.14535678356514</v>
+        <v>47.48051377244322</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>25.14535679469929</v>
+        <v>54.69868822149773</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>25.14535675382626</v>
+        <v>23.15728934046024</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>25.14535679050055</v>
+        <v>37.03304190153012</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>25.14535680359348</v>
+        <v>41.78748374049366</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.14535675039654</v>
+        <v>35.68025567491075</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>25.14535679042676</v>
+        <v>56.07323127460393</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>25.14535680534973</v>
+        <v>60.57060565263647</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>25.14535676188477</v>
+        <v>14.17235641685183</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>25.14535680578525</v>
+        <v>60.18063777746088</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>25.14535681853991</v>
+        <v>66.84833159537141</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>25.1453568093868</v>
+        <v>68.22069298119834</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>25.14535682658878</v>
+        <v>76.62500521634854</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>25.14535683050324</v>
+        <v>81.7118434204319</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.14535677210668</v>
+        <v>25.16290295428879</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>25.14535681495223</v>
+        <v>58.65894976559711</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>25.14535682659691</v>
+        <v>71.76310164182449</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>25.14535666678737</v>
+        <v>8.491094083146356</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.14535669856313</v>
+        <v>26.56464330293736</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>25.14535670960723</v>
+        <v>35.51016896168631</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>25.14535666710836</v>
+        <v>1.309344064797905</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.14535670371071</v>
+        <v>25.07474797845317</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.14535671561497</v>
+        <v>31.21626826675287</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.14535667326082</v>
+        <v>8.267127276731571</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.1453567124798</v>
+        <v>50.90382935389025</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.14535672282413</v>
+        <v>55.49104120910817</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.14535672125733</v>
+        <v>56.92802073743564</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>25.14535673476093</v>
+        <v>58.66226515997042</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>25.14535673885065</v>
+        <v>61.57302545321337</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>25.14535668953183</v>
+        <v>7.091018402889798</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>25.14535672654882</v>
+        <v>40.38132751297309</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>25.14535673669913</v>
+        <v>43.52597665781615</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>25.14535671412915</v>
+        <v>9.271406962411767</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>25.14535675092115</v>
+        <v>31.86080810094305</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>25.14535676401362</v>
+        <v>35.71191246093974</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>25.1453567094574</v>
+        <v>1.685401004601275</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>25.14535674930691</v>
+        <v>23.36832625157121</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.14535676479504</v>
+        <v>30.16816970312374</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>25.14535671993157</v>
+        <v>2.933195663558511</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>25.14535676371994</v>
+        <v>38.96970208726471</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>25.14535677676459</v>
+        <v>52.0795428827531</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.14535676890614</v>
+        <v>42.57336745630936</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>25.14535678694011</v>
+        <v>51.497575464684</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>25.14535679178095</v>
+        <v>58.6825255101426</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>25.14535673271296</v>
+        <v>4.884787781432763</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>25.14535677697206</v>
+        <v>40.09957559213922</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.14535678843135</v>
+        <v>50.00081702255797</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.14535674754761</v>
+        <v>10.55384248370871</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>25.14535678544992</v>
+        <v>31.59879007134601</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>25.14535679843556</v>
+        <v>42.19590450544494</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>25.14535674311143</v>
+        <v>-0.0706437577472343</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>25.14535678454573</v>
+        <v>25.96150566020175</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>25.14535679947043</v>
+        <v>35.03456097926954</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.14535675568925</v>
+        <v>3.617841311924195</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>25.1453568008211</v>
+        <v>45.07195906836364</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>25.14535681347817</v>
+        <v>64.46309294324327</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>25.14535680479373</v>
+        <v>57.02229598936607</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>25.14535682192634</v>
+        <v>70.30701424902352</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>25.14535682588661</v>
+        <v>79.92897016838856</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.14535676552528</v>
+        <v>5.265910545050119</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>25.14535681047637</v>
+        <v>54.82238269022467</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.14535682208967</v>
+        <v>67.28701336482686</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>25.14535666489294</v>
+        <v>10.86502058690297</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>25.14535669318768</v>
+        <v>11.4567381856608</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>25.14535670353919</v>
+        <v>15.95359729806108</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>25.14535666470689</v>
+        <v>1.083164095109826</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.14535669725059</v>
+        <v>13.15358532339386</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.14535670842396</v>
+        <v>14.75528756176368</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>25.1453566697539</v>
+        <v>9.340075840751057</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>25.14535670479333</v>
+        <v>25.18756144688602</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.14535671459747</v>
+        <v>27.72467174354227</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.14535671383245</v>
+        <v>22.58392659979278</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.14535672642416</v>
+        <v>26.15668116788355</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.14535673020299</v>
+        <v>28.7182168847944</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.14535668609144</v>
+        <v>9.421216870249344</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.14535671898051</v>
+        <v>17.07963424813502</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.14535672835821</v>
+        <v>21.06859152333796</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>25.14535671046304</v>
+        <v>8.195579375845774</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.14535674351577</v>
+        <v>20.10140332196758</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.14535675584618</v>
+        <v>30.70659813393848</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>25.14535670576979</v>
+        <v>1.118317440518055</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.14535674136221</v>
+        <v>11.93052770222747</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.14535675599319</v>
+        <v>24.62046387167351</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>25.14535671474933</v>
+        <v>3.500783857031756</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.14535675407561</v>
+        <v>21.78737859817146</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>25.14535676647935</v>
+        <v>43.46375247695312</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>25.14535675966649</v>
+        <v>26.54011207251411</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>25.14535677652636</v>
+        <v>37.29690609919822</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>25.14535678105207</v>
+        <v>51.25237866023975</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>25.1453567276645</v>
+        <v>4.089426801456856</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>25.14535676753083</v>
+        <v>30.11172498936369</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>25.14535677807289</v>
+        <v>43.48232576561433</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.14535674154929</v>
+        <v>15.28392053930376</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>25.14535677564665</v>
+        <v>28.17469911080897</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.1453567878795</v>
+        <v>40.62626337620154</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>25.1453567371202</v>
+        <v>1.911280668957922</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>25.14535677423351</v>
+        <v>19.59369094127371</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.1453567883321</v>
+        <v>32.22059393749905</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>25.14535674799954</v>
+        <v>6.83776594380987</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>25.14535678859314</v>
+        <v>35.2825758509973</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>25.1453568006287</v>
+        <v>55.96429449974131</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>25.14535679292889</v>
+        <v>44.122747687785</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>25.145356808912</v>
+        <v>52.92805550326086</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.14535681262461</v>
+        <v>65.47419679565024</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>25.14535675812545</v>
+        <v>6.410236159521041</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>25.14535679837412</v>
+        <v>38.84107470278028</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>25.14535680930045</v>
+        <v>58.25100530183372</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>25.1453566714816</v>
+        <v>15.83286850438111</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>25.14535670210399</v>
+        <v>19.92181211178501</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>25.14535671313804</v>
+        <v>24.31654515302825</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>25.14535667228344</v>
+        <v>0.7847044538723296</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>25.14535670773745</v>
+        <v>27.2255225431608</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>25.14535671950713</v>
+        <v>28.34171384120292</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>25.14535667791443</v>
+        <v>11.8865652788724</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>25.14535671601189</v>
+        <v>44.52423413398306</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>25.14535672632529</v>
+        <v>47.14362655169334</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.14535672447595</v>
+        <v>33.00886490893857</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>25.14535673804357</v>
+        <v>37.2511641178651</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>25.14535674202011</v>
+        <v>41.35807689525209</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.145356694791</v>
+        <v>14.22523996840751</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.145356729996</v>
+        <v>33.18580487985432</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.14535674001061</v>
+        <v>42.90188406080081</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.14535671985311</v>
+        <v>10.02097347502674</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.14535675538283</v>
+        <v>23.29925423640643</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>25.14535676858584</v>
+        <v>33.67776397752609</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.14535671592607</v>
+        <v>4.096667192336632</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>25.14535675434377</v>
+        <v>17.74294854348912</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>25.14535676975694</v>
+        <v>35.67654947580077</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.14535672546103</v>
+        <v>0.8747929601054629</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>25.14535676794657</v>
+        <v>29.71569929851622</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>25.14535678105995</v>
+        <v>47.35689639576728</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>25.14535677281081</v>
+        <v>27.37033378305915</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.14535679101477</v>
+        <v>39.18520911215921</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>25.14535679578079</v>
+        <v>54.19875893357256</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>25.14535673854883</v>
+        <v>6.305446269360953</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.1453567810586</v>
+        <v>33.96501310193559</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>25.14535679217099</v>
+        <v>44.1060523965749</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>25.1453567514952</v>
+        <v>13.39603299034671</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.14535678797312</v>
+        <v>24.63806096780259</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.14535680107969</v>
+        <v>33.09248197513309</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.14535674787842</v>
+        <v>2.333783526401447</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.14535678771232</v>
+        <v>20.20038273186601</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>25.14535680263916</v>
+        <v>31.77374407873291</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.14535675932549</v>
+        <v>4.790159764269212</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.14535680297243</v>
+        <v>39.11294543244725</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>25.14535681574117</v>
+        <v>52.15914298359886</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.14535680678814</v>
+        <v>44.26190881966384</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>25.14535682396721</v>
+        <v>53.56295916174447</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>25.14535682789076</v>
+        <v>66.50740240674807</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>25.14535676973518</v>
+        <v>6.526751142924056</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>25.14535681242405</v>
+        <v>33.24799474593281</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>25.14535682402965</v>
+        <v>53.59541831671854</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>25.14535667844599</v>
+        <v>15.63442092243284</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>25.1453567077876</v>
+        <v>26.88947058336282</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>25.14535671817486</v>
+        <v>36.17497509155023</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>25.14535667916966</v>
+        <v>3.269318152179984</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>25.14535671338547</v>
+        <v>41.21640839271878</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>25.14535672442533</v>
+        <v>46.78486575742079</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>25.14535668496912</v>
+        <v>12.96383170749083</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>25.14535672140396</v>
+        <v>66.04025505366943</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>25.14535673112846</v>
+        <v>65.57566548148552</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>25.14535672910133</v>
+        <v>60.24669479664513</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>25.14535674171529</v>
+        <v>59.21704345950068</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>25.14535674547034</v>
+        <v>65.08781020304235</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>25.14535669997145</v>
+        <v>15.43569083410096</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>25.14535673374147</v>
+        <v>21.91363595404427</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>25.14535674351897</v>
+        <v>66.69244533495973</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>25.14535672371628</v>
+        <v>21.93135677928574</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>25.1453567576867</v>
+        <v>36.70199986281304</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>25.14535676994597</v>
+        <v>39.47397873040531</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>25.14535671950772</v>
+        <v>5.305021597914781</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>25.14535675662633</v>
+        <v>29.24719784066374</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>25.14535677101194</v>
+        <v>36.05492288422987</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.14535672937015</v>
+        <v>8.699545957447011</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>25.14535677000424</v>
+        <v>47.9609082861768</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>25.14535678222404</v>
+        <v>56.93434057704707</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>25.14535677440873</v>
+        <v>48.74603231261193</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>25.14535679125613</v>
+        <v>55.99637958096515</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>25.14535679565982</v>
+        <v>62.71886915209517</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>25.14535674106152</v>
+        <v>20.04983076440041</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>25.14535678180788</v>
+        <v>47.8103533140385</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>25.14535679255187</v>
+        <v>55.46002311179578</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>25.14535675381071</v>
+        <v>22.8214441916908</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>25.14535678876948</v>
+        <v>36.76867057889137</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>25.14535680093965</v>
+        <v>42.84822866286858</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>25.14535674977732</v>
+        <v>4.365411286547477</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>25.14535678832471</v>
+        <v>32.39129418413739</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>25.14535680218689</v>
+        <v>39.46796922343806</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>25.14535676152017</v>
+        <v>10.88084380992362</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>25.1453568033626</v>
+        <v>57.32620647372647</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>25.14535681521504</v>
+        <v>69.22209768262969</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>25.14535680660994</v>
+        <v>66.00947739833509</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>25.14535682258229</v>
+        <v>72.19768970723848</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>25.14535682622008</v>
+        <v>77.98086293770541</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>25.14535677047605</v>
+        <v>17.99457946494569</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>25.14535681172729</v>
+        <v>56.57496453074575</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>25.14535682274024</v>
+        <v>66.99408815025946</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>25.14535666867046</v>
+        <v>7.523686127809455</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>25.14535670022454</v>
+        <v>24.58925532426049</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>25.14535671113369</v>
+        <v>31.92300986450477</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>25.14535666917381</v>
+        <v>2.029361381314114</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>25.14535670554968</v>
+        <v>27.62332161561812</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>25.1453567172862</v>
+        <v>30.76014590980255</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>25.14535667529177</v>
+        <v>7.507679028663652</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>25.14535671423677</v>
+        <v>48.07921161775941</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>25.14535672445283</v>
+        <v>52.95884236381895</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>25.14535672286108</v>
+        <v>52.07979867084129</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>25.14535673630768</v>
+        <v>58.29482018978359</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>25.14535674031399</v>
+        <v>56.62049170083142</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>25.14535669138958</v>
+        <v>6.175583119563171</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>25.14535672811017</v>
+        <v>37.60643863873459</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>25.14535673815469</v>
+        <v>38.86065398505002</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>25.14535671589894</v>
+        <v>8.735031234813587</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>25.14535675243762</v>
+        <v>31.66980264732117</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>25.14535676538902</v>
+        <v>34.37078659105938</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>25.14535671142554</v>
+        <v>3.995138798888973</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>25.14535675101273</v>
+        <v>26.41179743545129</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>25.14535676628668</v>
+        <v>33.57574898054028</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>25.14535672185719</v>
+        <v>7.504700044986222</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>25.14535676533528</v>
+        <v>42.3925429374725</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>25.14535677824827</v>
+        <v>57.36989131533845</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>25.14535677038769</v>
+        <v>46.46003137437958</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>25.14535678837237</v>
+        <v>57.22989145936151</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>25.14535679310346</v>
+        <v>63.60196952777429</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>25.14535673448314</v>
+        <v>7.212211623967256</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>25.14535677846735</v>
+        <v>48.59300521956288</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>25.1453567897198</v>
+        <v>52.46757133990711</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>25.14535674854888</v>
+        <v>11.83488737806686</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>25.14535678614434</v>
+        <v>30.52148548944525</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>25.14535679902681</v>
+        <v>40.05190575785488</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>25.14535674427248</v>
+        <v>0.4296980789696079</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>25.14535678538239</v>
+        <v>24.34241939532701</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>25.14535680014484</v>
+        <v>34.21591649756058</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>25.14535675671632</v>
+        <v>5.638983807819208</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>25.1453568014685</v>
+        <v>40.90716760458893</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>25.145356814023</v>
+        <v>62.03092778174863</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>25.14535680538841</v>
+        <v>57.07515833142669</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>25.14535682244213</v>
+        <v>68.20260440611985</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>25.14535682633147</v>
+        <v>78.3732713037693</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>25.14535676647602</v>
+        <v>5.091631855146247</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>25.14535681105064</v>
+        <v>47.93825618698285</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>25.14535682253012</v>
+        <v>62.16579902637947</v>
       </c>
     </row>
   </sheetData>
